--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Admin" state="visible" r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="502">
   <si>
     <t>allies</t>
   </si>
@@ -1384,16 +1384,13 @@
     <t>mjm1976m</t>
   </si>
   <si>
-    <t>15 Sep 2019 17:46:38 GMT</t>
-  </si>
-  <si>
     <t>117048304646225924</t>
   </si>
   <si>
     <t>Boricua</t>
   </si>
   <si>
-    <t>06 Sep 2019 03:05:41 GMT</t>
+    <t>26 Sep 2019 03:34:45 GMT</t>
   </si>
   <si>
     <t>361739579977629697</t>
@@ -1405,13 +1402,13 @@
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>11 Sep 2019 14:51:28 GMT</t>
+    <t>26 Sep 2019 03:16:44 GMT</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>11 Sep 2019 16:04:49 GMT</t>
+    <t>26 Sep 2019 04:03:47 GMT</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1420,7 +1417,7 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>11 Sep 2019 15:25:04 GMT</t>
+    <t>26 Sep 2019 03:43:10 GMT</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1435,16 +1432,13 @@
     <t>N0MADIC</t>
   </si>
   <si>
-    <t>15 Sep 2019 17:26:19 GMT</t>
-  </si>
-  <si>
     <t>472627903104811019</t>
   </si>
   <si>
     <t>IKANDY</t>
   </si>
   <si>
-    <t>06 Sep 2019 02:34:36 GMT</t>
+    <t>26 Sep 2019 03:53:56 GMT</t>
   </si>
   <si>
     <t>623622883201253411</t>
@@ -1459,15 +1453,15 @@
     <t>kash314</t>
   </si>
   <si>
+    <t>26 Sep 2019 03:50:16 GMT</t>
+  </si>
+  <si>
     <t>395979105700413451</t>
   </si>
   <si>
     <t>Korvvish</t>
   </si>
   <si>
-    <t>17 Jan 2019 21:03:26 GMT</t>
-  </si>
-  <si>
     <t>478053793532084250</t>
   </si>
   <si>
@@ -1477,7 +1471,7 @@
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>17 Jan 2019 21:12:35 GMT</t>
+    <t>26 Sep 2019 03:25:35 GMT</t>
   </si>
   <si>
     <t>453762219042406401</t>
@@ -1489,7 +1483,7 @@
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>22 Mar 2019 14:26:29 GMT</t>
+    <t>26 Sep 2019 03:06:44 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1522,7 +1516,7 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
-    <t>18 Jan 2019 03:20:26 GMT</t>
+    <t>26 Sep 2019 03:37:40 GMT</t>
   </si>
   <si>
     <t>305697563175157760</t>
@@ -1549,19 +1543,25 @@
     <t>mousecop</t>
   </si>
   <si>
-    <t>16 Sep 2019 01:36:01 GMT</t>
-  </si>
-  <si>
     <t>262441739523063809</t>
   </si>
   <si>
+    <t>jimmylalao</t>
+  </si>
+  <si>
     <t>431633842634358794</t>
   </si>
   <si>
+    <t>Kamakrazy</t>
+  </si>
+  <si>
     <t>621354689501593620</t>
   </si>
   <si>
-    <t>11 Sep 2019 14:48:17 GMT</t>
+    <t>PapaBot</t>
+  </si>
+  <si>
+    <t>26 Sep 2019 08:59:59 GMT</t>
   </si>
 </sst>
 </file>
@@ -4067,36 +4067,33 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C1" t="s">
-        <v>442</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
         <v>444</v>
-      </c>
-      <c r="C2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -4104,97 +4101,97 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" t="s">
         <v>448</v>
-      </c>
-      <c r="C4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" t="s">
         <v>453</v>
-      </c>
-      <c r="C6" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>458</v>
-      </c>
       <c r="C8" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" t="s">
         <v>460</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C9" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C11" t="s">
         <v>465</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C12" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -4202,18 +4199,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" t="s">
         <v>471</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -4221,105 +4218,111 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C16" t="s">
         <v>475</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C16" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" t="s">
         <v>486</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C21" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>495</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" t="s">
         <v>496</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
         <v>498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28" t="s">
         <v>500</v>
       </c>
       <c r="C28" t="s">

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="510">
   <si>
     <t>allies</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>plans</t>
+  </si>
+  <si>
+    <t>no plans</t>
   </si>
   <si>
     <t>help</t>
@@ -193,6 +196,12 @@
     <t>!1day</t>
   </si>
   <si>
+    <t>SGBR</t>
+  </si>
+  <si>
+    <t>Coolest and most good-looking of all the alliances</t>
+  </si>
+  <si>
     <t>Q: What is the difference between your wife and your job?</t>
   </si>
   <si>
@@ -1390,7 +1399,7 @@
     <t>Boricua</t>
   </si>
   <si>
-    <t>26 Sep 2019 03:34:45 GMT</t>
+    <t>27 Sep 2019 16:49:11 GMT</t>
   </si>
   <si>
     <t>361739579977629697</t>
@@ -1402,13 +1411,13 @@
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>26 Sep 2019 03:16:44 GMT</t>
+    <t>27 Sep 2019 14:03:48 GMT</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>26 Sep 2019 04:03:47 GMT</t>
+    <t>27 Sep 2019 15:06:49 GMT</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1417,7 +1426,7 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>26 Sep 2019 03:43:10 GMT</t>
+    <t>27 Sep 2019 17:21:31 GMT</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1426,19 +1435,25 @@
     <t>Draco</t>
   </si>
   <si>
+    <t>27 Sep 2019 12:08:26 GMT</t>
+  </si>
+  <si>
     <t>484126152571617280</t>
   </si>
   <si>
     <t>N0MADIC</t>
   </si>
   <si>
+    <t>27 Sep 2019 02:45:37 GMT</t>
+  </si>
+  <si>
     <t>472627903104811019</t>
   </si>
   <si>
     <t>IKANDY</t>
   </si>
   <si>
-    <t>26 Sep 2019 03:53:56 GMT</t>
+    <t>27 Sep 2019 17:25:51 GMT</t>
   </si>
   <si>
     <t>623622883201253411</t>
@@ -1453,7 +1468,7 @@
     <t>kash314</t>
   </si>
   <si>
-    <t>26 Sep 2019 03:50:16 GMT</t>
+    <t>27 Sep 2019 16:17:50 GMT</t>
   </si>
   <si>
     <t>395979105700413451</t>
@@ -1462,6 +1477,9 @@
     <t>Korvvish</t>
   </si>
   <si>
+    <t>27 Sep 2019 16:53:31 GMT</t>
+  </si>
+  <si>
     <t>478053793532084250</t>
   </si>
   <si>
@@ -1471,19 +1489,22 @@
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>26 Sep 2019 03:25:35 GMT</t>
+    <t>27 Sep 2019 17:13:51 GMT</t>
   </si>
   <si>
     <t>453762219042406401</t>
   </si>
   <si>
+    <t>27 Sep 2019 10:14:05 GMT</t>
+  </si>
+  <si>
     <t>467426493912317953</t>
   </si>
   <si>
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>26 Sep 2019 03:06:44 GMT</t>
+    <t>27 Sep 2019 17:31:51 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1516,7 +1537,7 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
-    <t>26 Sep 2019 03:37:40 GMT</t>
+    <t>27 Sep 2019 16:03:30 GMT</t>
   </si>
   <si>
     <t>305697563175157760</t>
@@ -1537,12 +1558,18 @@
     <t>SilviuPOWER</t>
   </si>
   <si>
+    <t>27 Sep 2019 15:55:10 GMT</t>
+  </si>
+  <si>
     <t>420761034941530113</t>
   </si>
   <si>
     <t>mousecop</t>
   </si>
   <si>
+    <t>28 Sep 2019 08:59:46 GMT</t>
+  </si>
+  <si>
     <t>262441739523063809</t>
   </si>
   <si>
@@ -1559,9 +1586,6 @@
   </si>
   <si>
     <t>PapaBot</t>
-  </si>
-  <si>
-    <t>26 Sep 2019 08:59:59 GMT</t>
   </si>
 </sst>
 </file>
@@ -1954,50 +1978,55 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2017,127 +2046,127 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2157,37 +2186,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2197,14 +2226,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2224,1837 +2264,1837 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="266" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="268" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="269" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="271" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="272" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="274" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="275" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="277" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="278" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="280" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="281" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="283" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="284" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="286" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="287" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="289" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="290" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="292" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="293" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="295" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="296" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="298" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="299" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="301" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="302" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="304" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="307" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="308" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="310" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="311" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="313" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="314" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="316" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="317" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="319" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="320" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="322" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="325" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="326" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="328" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="329" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="331" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="332" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="334" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="335" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="337" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="338" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="340" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="341" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="343" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="344" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="346" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="347" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="349" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="350" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="352" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="353" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="355" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="356" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="358" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="359" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="361" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="362" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="364" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="365" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="367" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="368" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="370" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="371" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="373" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="374" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="376" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="377" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="379" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="380" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="394" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="397" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="398" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="400" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="401" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="403" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="404" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="406" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="407" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="409" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="410" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="412" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="413" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="415" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="416" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="418" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="419" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="421" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="422" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="424" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="425" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="427" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="428" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="430" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="431" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="433" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="434" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="436" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="437" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="439" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="440" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="442" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="443" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="445" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="446" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="448" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="449" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -4074,259 +4114,274 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
+      </c>
+      <c r="C7" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>467</v>
+        <v>472</v>
+      </c>
+      <c r="C12" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C14" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C16" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C21" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="C24" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>494</v>
+        <v>502</v>
+      </c>
+      <c r="C25" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B26" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B27" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B28" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="C28" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Admin" state="visible" r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="514">
   <si>
     <t>allies</t>
   </si>
@@ -1399,7 +1399,7 @@
     <t>Boricua</t>
   </si>
   <si>
-    <t>27 Sep 2019 16:49:11 GMT</t>
+    <t>30 Sep 2019 13:06:58 GMT</t>
   </si>
   <si>
     <t>361739579977629697</t>
@@ -1411,13 +1411,13 @@
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>27 Sep 2019 14:03:48 GMT</t>
+    <t>28 Sep 2019 22:25:48 GMT</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>27 Sep 2019 15:06:49 GMT</t>
+    <t>30 Sep 2019 13:07:58 GMT</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1426,7 +1426,7 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>27 Sep 2019 17:21:31 GMT</t>
+    <t>30 Sep 2019 20:08:28 GMT</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1444,7 +1444,7 @@
     <t>N0MADIC</t>
   </si>
   <si>
-    <t>27 Sep 2019 02:45:37 GMT</t>
+    <t>30 Sep 2019 04:16:20 GMT</t>
   </si>
   <si>
     <t>472627903104811019</t>
@@ -1462,13 +1462,16 @@
     <t>imo the first</t>
   </si>
   <si>
+    <t>30 Sep 2019 14:22:24 GMT</t>
+  </si>
+  <si>
     <t>463908810373857324</t>
   </si>
   <si>
     <t>kash314</t>
   </si>
   <si>
-    <t>27 Sep 2019 16:17:50 GMT</t>
+    <t>30 Sep 2019 14:43:45 GMT</t>
   </si>
   <si>
     <t>395979105700413451</t>
@@ -1477,7 +1480,7 @@
     <t>Korvvish</t>
   </si>
   <si>
-    <t>27 Sep 2019 16:53:31 GMT</t>
+    <t>30 Sep 2019 21:01:31 GMT</t>
   </si>
   <si>
     <t>478053793532084250</t>
@@ -1489,13 +1492,13 @@
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>27 Sep 2019 17:13:51 GMT</t>
+    <t>30 Sep 2019 21:18:52 GMT</t>
   </si>
   <si>
     <t>453762219042406401</t>
   </si>
   <si>
-    <t>27 Sep 2019 10:14:05 GMT</t>
+    <t>30 Sep 2019 11:23:11 GMT</t>
   </si>
   <si>
     <t>467426493912317953</t>
@@ -1504,7 +1507,7 @@
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>27 Sep 2019 17:31:51 GMT</t>
+    <t>30 Sep 2019 20:53:31 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1513,6 +1516,9 @@
     <t>dancingpotato</t>
   </si>
   <si>
+    <t>30 Sep 2019 13:15:39 GMT</t>
+  </si>
+  <si>
     <t>370999241688219690</t>
   </si>
   <si>
@@ -1525,6 +1531,9 @@
     <t>Ricky</t>
   </si>
   <si>
+    <t>30 Sep 2019 04:52:23 GMT</t>
+  </si>
+  <si>
     <t>621404757042659328</t>
   </si>
   <si>
@@ -1537,7 +1546,7 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
-    <t>27 Sep 2019 16:03:30 GMT</t>
+    <t>30 Sep 2019 18:03:19 GMT</t>
   </si>
   <si>
     <t>305697563175157760</t>
@@ -1558,7 +1567,7 @@
     <t>SilviuPOWER</t>
   </si>
   <si>
-    <t>27 Sep 2019 15:55:10 GMT</t>
+    <t>30 Sep 2019 16:27:52 GMT</t>
   </si>
   <si>
     <t>420761034941530113</t>
@@ -1567,7 +1576,7 @@
     <t>mousecop</t>
   </si>
   <si>
-    <t>28 Sep 2019 08:59:46 GMT</t>
+    <t>30 Sep 2019 21:32:33 GMT</t>
   </si>
   <si>
     <t>262441739523063809</t>
@@ -1586,6 +1595,9 @@
   </si>
   <si>
     <t>PapaBot</t>
+  </si>
+  <si>
+    <t>01 Oct 2019 09:00:01 GMT</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4205,39 +4217,42 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="C10" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>26</v>
@@ -4245,143 +4260,149 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C16" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
+      </c>
+      <c r="C17" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
+      </c>
+      <c r="C19" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C21" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C24" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C25" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B26" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B27" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B28" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C28" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="531">
   <si>
     <t>allies</t>
   </si>
@@ -178,30 +178,72 @@
     <t>event</t>
   </si>
   <si>
+    <t>Season 6 - War 2</t>
+  </si>
+  <si>
+    <t>War Reset</t>
+  </si>
+  <si>
+    <t>Final War Reset</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>hour</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>!5min</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>!1hour</t>
   </si>
   <si>
     <t>!1day</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>SGBR</t>
   </si>
   <si>
+    <t>HEALZ</t>
+  </si>
+  <si>
     <t>Coolest and most good-looking of all the alliances</t>
   </si>
   <si>
+    <t>Sneak attack often. Spiteful douchebags that will sacrifice resources just to hurt the score of alliances they don't like (us) on principle, even when they have nothing to gain.</t>
+  </si>
+  <si>
+    <t>FUCK these guys</t>
+  </si>
+  <si>
     <t>Q: What is the difference between your wife and your job?</t>
   </si>
   <si>
@@ -1393,13 +1435,16 @@
     <t>mjm1976m</t>
   </si>
   <si>
+    <t>05 Oct 2019 21:47:20 GMT</t>
+  </si>
+  <si>
     <t>117048304646225924</t>
   </si>
   <si>
     <t>Boricua</t>
   </si>
   <si>
-    <t>30 Sep 2019 13:06:58 GMT</t>
+    <t>07 Oct 2019 20:15:44 GMT</t>
   </si>
   <si>
     <t>361739579977629697</t>
@@ -1411,13 +1456,13 @@
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>28 Sep 2019 22:25:48 GMT</t>
+    <t>07 Oct 2019 20:34:05 GMT</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>30 Sep 2019 13:07:58 GMT</t>
+    <t>08 Oct 2019 02:23:51 GMT</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1426,7 +1471,7 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>30 Sep 2019 20:08:28 GMT</t>
+    <t>08 Oct 2019 03:38:36 GMT</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1435,7 +1480,7 @@
     <t>Draco</t>
   </si>
   <si>
-    <t>27 Sep 2019 12:08:26 GMT</t>
+    <t>08 Oct 2019 01:45:48 GMT</t>
   </si>
   <si>
     <t>484126152571617280</t>
@@ -1444,7 +1489,7 @@
     <t>N0MADIC</t>
   </si>
   <si>
-    <t>30 Sep 2019 04:16:20 GMT</t>
+    <t>08 Oct 2019 02:20:31 GMT</t>
   </si>
   <si>
     <t>472627903104811019</t>
@@ -1453,7 +1498,7 @@
     <t>IKANDY</t>
   </si>
   <si>
-    <t>27 Sep 2019 17:25:51 GMT</t>
+    <t>08 Oct 2019 03:49:17 GMT</t>
   </si>
   <si>
     <t>623622883201253411</t>
@@ -1462,7 +1507,7 @@
     <t>imo the first</t>
   </si>
   <si>
-    <t>30 Sep 2019 14:22:24 GMT</t>
+    <t>07 Oct 2019 20:19:24 GMT</t>
   </si>
   <si>
     <t>463908810373857324</t>
@@ -1471,7 +1516,7 @@
     <t>kash314</t>
   </si>
   <si>
-    <t>30 Sep 2019 14:43:45 GMT</t>
+    <t>07 Oct 2019 23:27:18 GMT</t>
   </si>
   <si>
     <t>395979105700413451</t>
@@ -1480,25 +1525,28 @@
     <t>Korvvish</t>
   </si>
   <si>
-    <t>30 Sep 2019 21:01:31 GMT</t>
+    <t>07 Oct 2019 21:26:09 GMT</t>
   </si>
   <si>
     <t>478053793532084250</t>
   </si>
   <si>
+    <t>03 Oct 2019 00:30:52 GMT</t>
+  </si>
+  <si>
     <t>409471590988906508</t>
   </si>
   <si>
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>30 Sep 2019 21:18:52 GMT</t>
+    <t>08 Oct 2019 10:18:05 GMT</t>
   </si>
   <si>
     <t>453762219042406401</t>
   </si>
   <si>
-    <t>30 Sep 2019 11:23:11 GMT</t>
+    <t>07 Oct 2019 03:03:49 GMT</t>
   </si>
   <si>
     <t>467426493912317953</t>
@@ -1507,7 +1555,7 @@
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>30 Sep 2019 20:53:31 GMT</t>
+    <t>08 Oct 2019 01:08:45 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1516,7 +1564,7 @@
     <t>dancingpotato</t>
   </si>
   <si>
-    <t>30 Sep 2019 13:15:39 GMT</t>
+    <t>07 Oct 2019 15:59:45 GMT</t>
   </si>
   <si>
     <t>370999241688219690</t>
@@ -1531,7 +1579,7 @@
     <t>Ricky</t>
   </si>
   <si>
-    <t>30 Sep 2019 04:52:23 GMT</t>
+    <t>08 Oct 2019 02:08:50 GMT</t>
   </si>
   <si>
     <t>621404757042659328</t>
@@ -1546,7 +1594,7 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
-    <t>30 Sep 2019 18:03:19 GMT</t>
+    <t>08 Oct 2019 08:25:18 GMT</t>
   </si>
   <si>
     <t>305697563175157760</t>
@@ -1567,7 +1615,7 @@
     <t>SilviuPOWER</t>
   </si>
   <si>
-    <t>30 Sep 2019 16:27:52 GMT</t>
+    <t>08 Oct 2019 10:23:26 GMT</t>
   </si>
   <si>
     <t>420761034941530113</t>
@@ -1576,7 +1624,7 @@
     <t>mousecop</t>
   </si>
   <si>
-    <t>30 Sep 2019 21:32:33 GMT</t>
+    <t>08 Oct 2019 03:59:17 GMT</t>
   </si>
   <si>
     <t>262441739523063809</t>
@@ -1591,13 +1639,16 @@
     <t>Kamakrazy</t>
   </si>
   <si>
+    <t>07 Oct 2019 19:37:01 GMT</t>
+  </si>
+  <si>
     <t>621354689501593620</t>
   </si>
   <si>
     <t>PapaBot</t>
   </si>
   <si>
-    <t>01 Oct 2019 09:00:01 GMT</t>
+    <t>10 Oct 2019 08:59:57 GMT</t>
   </si>
 </sst>
 </file>
@@ -2188,7 +2239,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
@@ -2196,39 +2247,123 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2238,7 +2373,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B10" sqref="B10"/>
@@ -2246,14 +2381,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2276,1837 +2422,1837 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="266" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="268" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="271" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="272" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="274" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="275" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="277" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="278" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="280" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="281" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="283" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="284" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="286" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="287" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="289" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="290" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="292" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="293" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="295" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="296" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="298" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="299" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="301" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="302" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="304" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="307" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="308" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="310" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="311" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="313" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="314" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="316" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="317" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="319" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="320" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="322" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="325" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="326" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="328" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="329" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="331" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="332" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="334" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="335" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="337" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="338" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="340" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="341" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="346" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="347" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="349" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="350" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="352" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="353" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="355" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="356" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="358" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="359" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="361" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="362" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="364" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="365" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="367" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="368" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="370" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="371" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
     </row>
     <row r="373" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="374" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="376" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="377" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="379" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
     </row>
     <row r="380" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="394" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="397" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="398" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="400" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="401" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="403" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="404" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="406" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="407" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="409" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
     </row>
     <row r="410" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="412" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="413" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="415" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="416" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="418" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="419" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="421" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
     </row>
     <row r="422" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
     <row r="424" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="425" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="427" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="428" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="430" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="431" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="433" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="434" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="436" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
     <row r="437" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="439" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="440" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="442" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="443" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="445" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="446" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="448" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="449" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -4124,28 +4270,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>444</v>
+        <v>458</v>
+      </c>
+      <c r="C1" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
@@ -4153,256 +4302,262 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="C8" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C9" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C10" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="C11" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="C12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="C13" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C14" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="C16" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="C17" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="C19" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="C21" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="C24" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="C25" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="B26" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="B27" t="s">
-        <v>510</v>
+        <v>526</v>
+      </c>
+      <c r="C27" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="B28" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="C28" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="530">
   <si>
     <t>allies</t>
   </si>
@@ -1456,7 +1456,7 @@
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>07 Oct 2019 20:34:05 GMT</t>
+    <t>10 Oct 2019 22:00:08 GMT</t>
   </si>
   <si>
     <t>621375239909015552</t>
@@ -1555,7 +1555,7 @@
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>08 Oct 2019 01:08:45 GMT</t>
+    <t>11 Oct 2019 09:00:03 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1646,9 +1646,6 @@
   </si>
   <si>
     <t>PapaBot</t>
-  </si>
-  <si>
-    <t>10 Oct 2019 08:59:57 GMT</t>
   </si>
 </sst>
 </file>
@@ -2354,7 +2351,7 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
@@ -4557,7 +4554,7 @@
         <v>529</v>
       </c>
       <c r="C28" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Admin" state="visible" r:id="rId4"/>
@@ -19,18 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="522">
   <si>
     <t>allies</t>
   </si>
   <si>
-    <t/>
+    <t>We don't really use this.</t>
   </si>
   <si>
     <t>plans</t>
-  </si>
-  <si>
-    <t>no plans</t>
   </si>
   <si>
     <t>help</t>
@@ -100,7 +97,7 @@
  - **!notes &lt;tag&gt; create** will add a new alliance to the list that we can add notes for.</t>
   </si>
   <si>
-    <t>2inpink 3instink</t>
+    <t>rectum wrecker</t>
   </si>
   <si>
     <t>boricua</t>
@@ -166,78 +163,57 @@
     <t>shooty pants</t>
   </si>
   <si>
-    <t>teamgb</t>
-  </si>
-  <si>
     <t>wrathavenger</t>
   </si>
   <si>
     <t>xmousecop</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>event</t>
   </si>
   <si>
-    <t>Season 6 - War 2</t>
-  </si>
-  <si>
-    <t>War Reset</t>
-  </si>
-  <si>
-    <t>Final War Reset</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>hour</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>!5min</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>!1hour</t>
   </si>
   <si>
     <t>!1day</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>SGBR</t>
   </si>
   <si>
     <t>HEALZ</t>
   </si>
   <si>
+    <t>TERRA</t>
+  </si>
+  <si>
     <t>Coolest and most good-looking of all the alliances</t>
   </si>
   <si>
+    <t>also i take back the earlier mean things about healz</t>
+  </si>
+  <si>
+    <t>Fuck Doc Holliday, dude is a certified BITCH</t>
+  </si>
+  <si>
+    <t>Quinn is a good war contact</t>
+  </si>
+  <si>
     <t>Sneak attack often. Spiteful douchebags that will sacrifice resources just to hurt the score of alliances they don't like (us) on principle, even when they have nothing to gain.</t>
   </si>
   <si>
@@ -1435,7 +1411,7 @@
     <t>mjm1976m</t>
   </si>
   <si>
-    <t>05 Oct 2019 21:47:20 GMT</t>
+    <t>15 Oct 2019 13:05:49 GMT</t>
   </si>
   <si>
     <t>117048304646225924</t>
@@ -1444,7 +1420,7 @@
     <t>Boricua</t>
   </si>
   <si>
-    <t>07 Oct 2019 20:15:44 GMT</t>
+    <t>15 Oct 2019 13:54:33 GMT</t>
   </si>
   <si>
     <t>361739579977629697</t>
@@ -1462,7 +1438,7 @@
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>08 Oct 2019 02:23:51 GMT</t>
+    <t>15 Oct 2019 13:45:32 GMT</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1471,7 +1447,7 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>08 Oct 2019 03:38:36 GMT</t>
+    <t>23 Oct 2019 22:09:17 GMT</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1480,7 +1456,7 @@
     <t>Draco</t>
   </si>
   <si>
-    <t>08 Oct 2019 01:45:48 GMT</t>
+    <t>15 Oct 2019 15:04:17 GMT</t>
   </si>
   <si>
     <t>484126152571617280</t>
@@ -1489,7 +1465,7 @@
     <t>N0MADIC</t>
   </si>
   <si>
-    <t>08 Oct 2019 02:20:31 GMT</t>
+    <t>15 Oct 2019 06:44:02 GMT</t>
   </si>
   <si>
     <t>472627903104811019</t>
@@ -1498,7 +1474,7 @@
     <t>IKANDY</t>
   </si>
   <si>
-    <t>08 Oct 2019 03:49:17 GMT</t>
+    <t>15 Oct 2019 19:23:35 GMT</t>
   </si>
   <si>
     <t>623622883201253411</t>
@@ -1507,7 +1483,7 @@
     <t>imo the first</t>
   </si>
   <si>
-    <t>07 Oct 2019 20:19:24 GMT</t>
+    <t>12 Oct 2019 03:57:38 GMT</t>
   </si>
   <si>
     <t>463908810373857324</t>
@@ -1516,7 +1492,7 @@
     <t>kash314</t>
   </si>
   <si>
-    <t>07 Oct 2019 23:27:18 GMT</t>
+    <t>15 Oct 2019 19:07:34 GMT</t>
   </si>
   <si>
     <t>395979105700413451</t>
@@ -1525,13 +1501,13 @@
     <t>Korvvish</t>
   </si>
   <si>
-    <t>07 Oct 2019 21:26:09 GMT</t>
+    <t>14 Oct 2019 17:02:06 GMT</t>
   </si>
   <si>
     <t>478053793532084250</t>
   </si>
   <si>
-    <t>03 Oct 2019 00:30:52 GMT</t>
+    <t>15 Oct 2019 06:22:01 GMT</t>
   </si>
   <si>
     <t>409471590988906508</t>
@@ -1540,13 +1516,13 @@
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>08 Oct 2019 10:18:05 GMT</t>
+    <t>15 Oct 2019 19:40:16 GMT</t>
   </si>
   <si>
     <t>453762219042406401</t>
   </si>
   <si>
-    <t>07 Oct 2019 03:03:49 GMT</t>
+    <t>15 Oct 2019 18:16:31 GMT</t>
   </si>
   <si>
     <t>467426493912317953</t>
@@ -1555,7 +1531,7 @@
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>11 Oct 2019 09:00:03 GMT</t>
+    <t>15 Oct 2019 19:33:16 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1564,7 +1540,7 @@
     <t>dancingpotato</t>
   </si>
   <si>
-    <t>07 Oct 2019 15:59:45 GMT</t>
+    <t>15 Oct 2019 15:28:39 GMT</t>
   </si>
   <si>
     <t>370999241688219690</t>
@@ -1579,7 +1555,7 @@
     <t>Ricky</t>
   </si>
   <si>
-    <t>08 Oct 2019 02:08:50 GMT</t>
+    <t>15 Oct 2019 01:01:59 GMT</t>
   </si>
   <si>
     <t>621404757042659328</t>
@@ -1594,7 +1570,7 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
-    <t>08 Oct 2019 08:25:18 GMT</t>
+    <t>15 Oct 2019 14:32:55 GMT</t>
   </si>
   <si>
     <t>305697563175157760</t>
@@ -1615,7 +1591,7 @@
     <t>SilviuPOWER</t>
   </si>
   <si>
-    <t>08 Oct 2019 10:23:26 GMT</t>
+    <t>15 Oct 2019 19:33:56 GMT</t>
   </si>
   <si>
     <t>420761034941530113</t>
@@ -1624,7 +1600,7 @@
     <t>mousecop</t>
   </si>
   <si>
-    <t>08 Oct 2019 03:59:17 GMT</t>
+    <t>13 Oct 2019 01:50:43 GMT</t>
   </si>
   <si>
     <t>262441739523063809</t>
@@ -2040,53 +2016,53 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2099,134 +2075,134 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2212,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
@@ -2244,123 +2220,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2262,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B10" sqref="B10"/>
@@ -2378,25 +2270,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2419,1837 +2327,1837 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="266" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="268" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="269" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="271" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="272" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="274" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="275" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="277" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="278" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="280" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="281" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="283" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="284" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="286" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="287" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="289" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="290" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="292" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="293" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="295" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="296" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="298" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="299" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="301" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="302" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="304" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="307" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="308" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="310" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="311" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="313" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="314" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="316" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="317" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="319" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="320" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="322" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="325" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="326" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="328" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="329" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="331" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="332" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="334" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="335" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="337" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="338" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="340" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="341" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="343" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="344" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="346" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="347" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="349" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="350" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="352" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="353" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="355" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="356" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="358" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="359" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="361" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="362" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="364" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="365" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="367" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="368" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="370" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="371" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="373" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="374" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="376" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="377" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="379" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="380" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="394" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="397" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="398" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="400" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="401" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="403" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="404" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="406" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="407" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="409" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="410" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="412" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="413" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="415" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="416" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="418" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="419" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="421" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="422" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="424" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="425" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="427" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="428" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="430" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="431" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="433" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="434" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="436" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="437" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="439" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="440" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="442" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="443" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="445" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="446" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="448" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="449" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -4269,292 +4177,292 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C6" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C8" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C10" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C12" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C14" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C16" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C17" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C19" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C21" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C24" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C25" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B26" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B27" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C27" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B28" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C28" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Admin" state="visible" r:id="rId4"/>
@@ -19,15 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="523">
   <si>
     <t>allies</t>
   </si>
   <si>
+    <t>We don't really use this</t>
+  </si>
+  <si>
+    <t>plans</t>
+  </si>
+  <si>
     <t>We don't really use this.</t>
-  </si>
-  <si>
-    <t>plans</t>
   </si>
   <si>
     <t>help</t>
@@ -1411,7 +1414,7 @@
     <t>mjm1976m</t>
   </si>
   <si>
-    <t>15 Oct 2019 13:05:49 GMT</t>
+    <t>30 Oct 2019 01:22:24 GMT</t>
   </si>
   <si>
     <t>117048304646225924</t>
@@ -1420,7 +1423,7 @@
     <t>Boricua</t>
   </si>
   <si>
-    <t>15 Oct 2019 13:54:33 GMT</t>
+    <t>30 Oct 2019 01:29:45 GMT</t>
   </si>
   <si>
     <t>361739579977629697</t>
@@ -1432,13 +1435,13 @@
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>10 Oct 2019 22:00:08 GMT</t>
+    <t>30 Oct 2019 01:17:04 GMT</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>15 Oct 2019 13:45:32 GMT</t>
+    <t>30 Oct 2019 04:40:30 GMT</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1447,7 +1450,7 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>23 Oct 2019 22:09:17 GMT</t>
+    <t>30 Oct 2019 00:06:40 GMT</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1465,7 +1468,7 @@
     <t>N0MADIC</t>
   </si>
   <si>
-    <t>15 Oct 2019 06:44:02 GMT</t>
+    <t>30 Oct 2019 04:19:49 GMT</t>
   </si>
   <si>
     <t>472627903104811019</t>
@@ -1474,7 +1477,7 @@
     <t>IKANDY</t>
   </si>
   <si>
-    <t>15 Oct 2019 19:23:35 GMT</t>
+    <t>30 Oct 2019 03:58:07 GMT</t>
   </si>
   <si>
     <t>623622883201253411</t>
@@ -1492,7 +1495,7 @@
     <t>kash314</t>
   </si>
   <si>
-    <t>15 Oct 2019 19:07:34 GMT</t>
+    <t>30 Oct 2019 05:42:35 GMT</t>
   </si>
   <si>
     <t>395979105700413451</t>
@@ -1501,7 +1504,7 @@
     <t>Korvvish</t>
   </si>
   <si>
-    <t>14 Oct 2019 17:02:06 GMT</t>
+    <t>30 Oct 2019 04:43:51 GMT</t>
   </si>
   <si>
     <t>478053793532084250</t>
@@ -1516,7 +1519,7 @@
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>15 Oct 2019 19:40:16 GMT</t>
+    <t>30 Oct 2019 03:54:07 GMT</t>
   </si>
   <si>
     <t>453762219042406401</t>
@@ -1531,7 +1534,7 @@
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>15 Oct 2019 19:33:16 GMT</t>
+    <t>30 Oct 2019 02:30:02 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1555,7 +1558,7 @@
     <t>Ricky</t>
   </si>
   <si>
-    <t>15 Oct 2019 01:01:59 GMT</t>
+    <t>30 Oct 2019 01:52:01 GMT</t>
   </si>
   <si>
     <t>621404757042659328</t>
@@ -1570,7 +1573,7 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
-    <t>15 Oct 2019 14:32:55 GMT</t>
+    <t>30 Oct 2019 05:43:15 GMT</t>
   </si>
   <si>
     <t>305697563175157760</t>
@@ -1579,19 +1582,13 @@
     <t>shooty-pants</t>
   </si>
   <si>
-    <t>428221019409350666</t>
-  </si>
-  <si>
-    <t>TeamGB</t>
-  </si>
-  <si>
     <t>246021971601522688</t>
   </si>
   <si>
     <t>SilviuPOWER</t>
   </si>
   <si>
-    <t>15 Oct 2019 19:33:56 GMT</t>
+    <t>30 Oct 2019 05:08:12 GMT</t>
   </si>
   <si>
     <t>420761034941530113</t>
@@ -1600,13 +1597,7 @@
     <t>mousecop</t>
   </si>
   <si>
-    <t>13 Oct 2019 01:50:43 GMT</t>
-  </si>
-  <si>
-    <t>262441739523063809</t>
-  </si>
-  <si>
-    <t>jimmylalao</t>
+    <t>30 Oct 2019 05:24:33 GMT</t>
   </si>
   <si>
     <t>431633842634358794</t>
@@ -1622,6 +1613,18 @@
   </si>
   <si>
     <t>PapaBot</t>
+  </si>
+  <si>
+    <t>01 Nov 2019 09:00:04 GMT</t>
+  </si>
+  <si>
+    <t>482657328320217139</t>
+  </si>
+  <si>
+    <t>ballndp</t>
+  </si>
+  <si>
+    <t>30 Oct 2019 02:58:03 GMT</t>
   </si>
 </sst>
 </file>
@@ -2016,53 +2019,53 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2082,127 +2085,127 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2222,37 +2225,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2272,39 +2275,39 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2327,1837 +2330,1837 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="266" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="268" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="269" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="271" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="272" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="274" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="275" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="277" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="278" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="280" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="281" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="283" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="284" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="286" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="287" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="289" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="290" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="292" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="293" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="295" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="296" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="298" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="299" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="301" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="302" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="304" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="307" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="308" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="310" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="311" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="313" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="314" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="316" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="317" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="319" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="320" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="322" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="325" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="326" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="328" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="329" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="331" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="332" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="334" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="335" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="337" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="338" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="340" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="341" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="343" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="344" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="346" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="347" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="349" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="350" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="352" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="353" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="355" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="356" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="358" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="359" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="361" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="362" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="364" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="365" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="367" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="368" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="370" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="371" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="373" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="374" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="376" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="377" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="379" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="380" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="394" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="397" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="398" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="400" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="401" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="403" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="404" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="406" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="407" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="409" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="410" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="412" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="413" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="415" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="416" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="418" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="419" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="421" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="422" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="424" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="425" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="427" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="428" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="430" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="431" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="433" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="434" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="436" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="437" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="439" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="440" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="442" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="443" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="445" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="446" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="448" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="449" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4167,302 +4170,297 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C16" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C17" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
+      </c>
+      <c r="C23" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C24" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>513</v>
+      <c r="A25" t="s">
+        <v>514</v>
+      </c>
+      <c r="B25" t="s">
+        <v>515</v>
       </c>
       <c r="C25" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B26" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+      <c r="C26" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B27" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C27" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>520</v>
-      </c>
-      <c r="B28" t="s">
-        <v>521</v>
-      </c>
-      <c r="C28" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="520">
   <si>
     <t>allies</t>
   </si>
@@ -1423,7 +1423,7 @@
     <t>Boricua</t>
   </si>
   <si>
-    <t>30 Oct 2019 01:29:45 GMT</t>
+    <t>02 Nov 2019 14:46:58 GMT</t>
   </si>
   <si>
     <t>361739579977629697</t>
@@ -1435,13 +1435,13 @@
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>30 Oct 2019 01:17:04 GMT</t>
+    <t>02 Nov 2019 22:21:38 GMT</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>30 Oct 2019 04:40:30 GMT</t>
+    <t>03 Nov 2019 02:22:11 GMT</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1450,7 +1450,7 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>30 Oct 2019 00:06:40 GMT</t>
+    <t>02 Nov 2019 21:20:56 GMT</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1468,7 +1468,7 @@
     <t>N0MADIC</t>
   </si>
   <si>
-    <t>30 Oct 2019 04:19:49 GMT</t>
+    <t>03 Nov 2019 09:59:53 GMT</t>
   </si>
   <si>
     <t>472627903104811019</t>
@@ -1477,7 +1477,7 @@
     <t>IKANDY</t>
   </si>
   <si>
-    <t>30 Oct 2019 03:58:07 GMT</t>
+    <t>03 Nov 2019 03:38:13 GMT</t>
   </si>
   <si>
     <t>623622883201253411</t>
@@ -1495,7 +1495,7 @@
     <t>kash314</t>
   </si>
   <si>
-    <t>30 Oct 2019 05:42:35 GMT</t>
+    <t>03 Nov 2019 01:11:08 GMT</t>
   </si>
   <si>
     <t>395979105700413451</t>
@@ -1504,7 +1504,7 @@
     <t>Korvvish</t>
   </si>
   <si>
-    <t>30 Oct 2019 04:43:51 GMT</t>
+    <t>02 Nov 2019 22:54:39 GMT</t>
   </si>
   <si>
     <t>478053793532084250</t>
@@ -1519,7 +1519,7 @@
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>30 Oct 2019 03:54:07 GMT</t>
+    <t>03 Nov 2019 03:50:14 GMT</t>
   </si>
   <si>
     <t>453762219042406401</t>
@@ -1534,7 +1534,7 @@
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>30 Oct 2019 02:30:02 GMT</t>
+    <t>03 Nov 2019 02:24:51 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1543,9 +1543,6 @@
     <t>dancingpotato</t>
   </si>
   <si>
-    <t>15 Oct 2019 15:28:39 GMT</t>
-  </si>
-  <si>
     <t>370999241688219690</t>
   </si>
   <si>
@@ -1558,7 +1555,7 @@
     <t>Ricky</t>
   </si>
   <si>
-    <t>30 Oct 2019 01:52:01 GMT</t>
+    <t>02 Nov 2019 01:34:15 GMT</t>
   </si>
   <si>
     <t>621404757042659328</t>
@@ -1573,9 +1570,6 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
-    <t>30 Oct 2019 05:43:15 GMT</t>
-  </si>
-  <si>
     <t>305697563175157760</t>
   </si>
   <si>
@@ -1588,7 +1582,7 @@
     <t>SilviuPOWER</t>
   </si>
   <si>
-    <t>30 Oct 2019 05:08:12 GMT</t>
+    <t>03 Nov 2019 00:56:27 GMT</t>
   </si>
   <si>
     <t>420761034941530113</t>
@@ -1597,7 +1591,7 @@
     <t>mousecop</t>
   </si>
   <si>
-    <t>30 Oct 2019 05:24:33 GMT</t>
+    <t>02 Nov 2019 02:55:00 GMT</t>
   </si>
   <si>
     <t>431633842634358794</t>
@@ -1613,9 +1607,6 @@
   </si>
   <si>
     <t>PapaBot</t>
-  </si>
-  <si>
-    <t>01 Nov 2019 09:00:04 GMT</t>
   </si>
   <si>
     <t>482657328320217139</t>
@@ -4359,108 +4350,108 @@
         <v>494</v>
       </c>
       <c r="C17" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" t="s">
         <v>499</v>
-      </c>
-      <c r="C19" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>504</v>
-      </c>
       <c r="C21" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C23" t="s">
         <v>508</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="C23" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C24" t="s">
         <v>511</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="C24" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>512</v>
+      </c>
+      <c r="B25" t="s">
+        <v>513</v>
+      </c>
+      <c r="C25" t="s">
         <v>514</v>
-      </c>
-      <c r="B25" t="s">
-        <v>515</v>
-      </c>
-      <c r="C25" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B26" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C26" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B27" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="561">
   <si>
     <t>allies</t>
   </si>
@@ -103,30 +103,69 @@
     <t>rectum wrecker</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>boricua</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>bubbarocker</t>
   </si>
   <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>copperpopo</t>
   </si>
   <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>creepingdeath</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
     <t>dirty diapers</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>dracolatias</t>
   </si>
   <si>
     <t>i n0mad i</t>
   </si>
   <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>ikandy1</t>
   </si>
   <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>imothe1</t>
   </si>
   <si>
@@ -136,66 +175,144 @@
     <t>korvvish</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
     <t>msbatman</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
     <t>nae blis</t>
   </si>
   <si>
     <t>ocivv</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>papa marsh</t>
   </si>
   <si>
     <t>peekaboo123</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>pratt11</t>
   </si>
   <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>rickys ruff riders</t>
   </si>
   <si>
     <t>ru1900</t>
   </si>
   <si>
+    <t>174</t>
+  </si>
+  <si>
     <t>sarcasticahole</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>shooty pants</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>wrathavenger</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>xmousecop</t>
   </si>
   <si>
-    <t/>
+    <t>121</t>
+  </si>
+  <si>
+    <t>ballndp</t>
   </si>
   <si>
     <t>event</t>
   </si>
   <si>
+    <t>War Reset</t>
+  </si>
+  <si>
+    <t>Season 7 - War 2</t>
+  </si>
+  <si>
+    <t>Final War Reset</t>
+  </si>
+  <si>
+    <t>Season 7 - War 3</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>hour</t>
   </si>
   <si>
     <t>!5min</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>!1hour</t>
   </si>
   <si>
     <t>!1day</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>SGBR</t>
   </si>
   <si>
@@ -1423,7 +1540,7 @@
     <t>Boricua</t>
   </si>
   <si>
-    <t>02 Nov 2019 14:46:58 GMT</t>
+    <t>06 Nov 2019 00:44:19 GMT</t>
   </si>
   <si>
     <t>361739579977629697</t>
@@ -1435,13 +1552,13 @@
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>02 Nov 2019 22:21:38 GMT</t>
+    <t>06 Nov 2019 04:42:32 GMT</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>03 Nov 2019 02:22:11 GMT</t>
+    <t>06 Nov 2019 05:24:12 GMT</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1450,7 +1567,7 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>02 Nov 2019 21:20:56 GMT</t>
+    <t>05 Nov 2019 23:57:18 GMT</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1468,7 +1585,7 @@
     <t>N0MADIC</t>
   </si>
   <si>
-    <t>03 Nov 2019 09:59:53 GMT</t>
+    <t>05 Nov 2019 03:55:07 GMT</t>
   </si>
   <si>
     <t>472627903104811019</t>
@@ -1477,7 +1594,7 @@
     <t>IKANDY</t>
   </si>
   <si>
-    <t>03 Nov 2019 03:38:13 GMT</t>
+    <t>06 Nov 2019 05:00:11 GMT</t>
   </si>
   <si>
     <t>623622883201253411</t>
@@ -1486,7 +1603,7 @@
     <t>imo the first</t>
   </si>
   <si>
-    <t>12 Oct 2019 03:57:38 GMT</t>
+    <t>05 Nov 2019 20:17:03 GMT</t>
   </si>
   <si>
     <t>463908810373857324</t>
@@ -1495,7 +1612,7 @@
     <t>kash314</t>
   </si>
   <si>
-    <t>03 Nov 2019 01:11:08 GMT</t>
+    <t>06 Nov 2019 05:39:53 GMT</t>
   </si>
   <si>
     <t>395979105700413451</t>
@@ -1504,7 +1621,7 @@
     <t>Korvvish</t>
   </si>
   <si>
-    <t>02 Nov 2019 22:54:39 GMT</t>
+    <t>05 Nov 2019 22:06:11 GMT</t>
   </si>
   <si>
     <t>478053793532084250</t>
@@ -1519,7 +1636,7 @@
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>03 Nov 2019 03:50:14 GMT</t>
+    <t>06 Nov 2019 00:38:59 GMT</t>
   </si>
   <si>
     <t>453762219042406401</t>
@@ -1534,7 +1651,7 @@
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>03 Nov 2019 02:24:51 GMT</t>
+    <t>06 Nov 2019 04:54:51 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1543,6 +1660,9 @@
     <t>dancingpotato</t>
   </si>
   <si>
+    <t>04 Nov 2019 04:09:19 GMT</t>
+  </si>
+  <si>
     <t>370999241688219690</t>
   </si>
   <si>
@@ -1555,7 +1675,7 @@
     <t>Ricky</t>
   </si>
   <si>
-    <t>02 Nov 2019 01:34:15 GMT</t>
+    <t>05 Nov 2019 23:19:56 GMT</t>
   </si>
   <si>
     <t>621404757042659328</t>
@@ -1570,6 +1690,9 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
+    <t>06 Nov 2019 07:12:39 GMT</t>
+  </si>
+  <si>
     <t>305697563175157760</t>
   </si>
   <si>
@@ -1582,7 +1705,7 @@
     <t>SilviuPOWER</t>
   </si>
   <si>
-    <t>03 Nov 2019 00:56:27 GMT</t>
+    <t>06 Nov 2019 10:01:50 GMT</t>
   </si>
   <si>
     <t>420761034941530113</t>
@@ -1591,7 +1714,7 @@
     <t>mousecop</t>
   </si>
   <si>
-    <t>02 Nov 2019 02:55:00 GMT</t>
+    <t>06 Nov 2019 00:38:39 GMT</t>
   </si>
   <si>
     <t>431633842634358794</t>
@@ -1609,13 +1732,13 @@
     <t>PapaBot</t>
   </si>
   <si>
+    <t>07 Nov 2019 10:00:01 GMT</t>
+  </si>
+  <si>
     <t>482657328320217139</t>
   </si>
   <si>
-    <t>ballndp</t>
-  </si>
-  <si>
-    <t>30 Oct 2019 02:58:03 GMT</t>
+    <t>05 Nov 2019 15:44:15 GMT</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2189,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E11" sqref="E11"/>
@@ -2074,129 +2197,276 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2476,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
@@ -2214,39 +2484,228 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2266,39 +2725,39 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2321,1837 +2780,1837 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
     </row>
     <row r="266" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="268" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
     </row>
     <row r="269" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
     </row>
     <row r="271" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
     </row>
     <row r="272" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="274" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
     </row>
     <row r="275" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
     </row>
     <row r="277" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
     </row>
     <row r="278" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
     </row>
     <row r="280" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
     </row>
     <row r="281" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
     </row>
     <row r="283" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
     </row>
     <row r="284" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
     </row>
     <row r="286" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
     </row>
     <row r="287" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
     </row>
     <row r="289" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
     </row>
     <row r="290" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
     </row>
     <row r="292" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
     </row>
     <row r="293" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="295" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
     </row>
     <row r="296" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
     </row>
     <row r="298" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
     </row>
     <row r="299" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
     </row>
     <row r="301" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
     </row>
     <row r="302" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
     </row>
     <row r="304" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
     </row>
     <row r="307" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="308" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
     </row>
     <row r="310" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
     </row>
     <row r="311" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
     </row>
     <row r="313" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
     </row>
     <row r="314" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
     </row>
     <row r="316" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
     </row>
     <row r="317" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
     </row>
     <row r="319" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
     </row>
     <row r="320" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
     </row>
     <row r="322" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="325" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
     </row>
     <row r="326" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
     </row>
     <row r="328" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
     </row>
     <row r="329" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
     </row>
     <row r="331" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
     </row>
     <row r="332" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
     </row>
     <row r="334" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="335" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
     </row>
     <row r="337" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
     </row>
     <row r="338" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
     </row>
     <row r="340" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="341" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
     </row>
     <row r="343" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
     </row>
     <row r="344" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
     </row>
     <row r="346" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
     </row>
     <row r="347" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
     </row>
     <row r="349" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
     </row>
     <row r="350" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
     </row>
     <row r="352" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
     </row>
     <row r="353" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
     </row>
     <row r="355" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
     </row>
     <row r="356" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="358" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
     </row>
     <row r="359" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
     </row>
     <row r="361" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
     </row>
     <row r="362" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
     </row>
     <row r="364" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
     </row>
     <row r="365" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
     </row>
     <row r="367" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
     </row>
     <row r="368" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
     </row>
     <row r="370" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
     </row>
     <row r="371" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
     </row>
     <row r="373" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
     </row>
     <row r="374" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
     </row>
     <row r="376" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
     </row>
     <row r="377" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
     </row>
     <row r="379" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
     </row>
     <row r="380" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
     </row>
     <row r="394" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
     </row>
     <row r="397" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
     </row>
     <row r="398" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
     </row>
     <row r="400" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
     </row>
     <row r="401" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
     </row>
     <row r="403" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
     </row>
     <row r="404" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
     </row>
     <row r="406" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
     </row>
     <row r="407" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
     </row>
     <row r="409" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
     </row>
     <row r="410" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
     </row>
     <row r="412" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
     </row>
     <row r="413" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
     </row>
     <row r="415" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
     </row>
     <row r="416" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>427</v>
+        <v>466</v>
       </c>
     </row>
     <row r="418" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>428</v>
+        <v>467</v>
       </c>
     </row>
     <row r="419" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
     </row>
     <row r="421" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
     </row>
     <row r="422" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
     </row>
     <row r="424" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
     </row>
     <row r="425" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
     </row>
     <row r="427" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
     </row>
     <row r="428" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
     </row>
     <row r="430" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
     </row>
     <row r="431" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
     </row>
     <row r="433" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
     </row>
     <row r="434" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
     </row>
     <row r="436" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
     </row>
     <row r="437" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
     </row>
     <row r="439" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
     </row>
     <row r="440" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
     </row>
     <row r="442" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
     </row>
     <row r="443" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
     </row>
     <row r="445" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
     </row>
     <row r="446" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
     </row>
     <row r="449" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -4171,287 +4630,287 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="C1" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="C6" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="C7" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="C8" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="C9" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="C10" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="C11" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="C14" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="C17" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="C19" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="C21" t="s">
-        <v>470</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="C23" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="C24" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="B25" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="C25" t="s">
-        <v>514</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="B26" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="C26" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="B27" t="s">
-        <v>518</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="528">
   <si>
     <t>allies</t>
   </si>
@@ -100,72 +100,33 @@
  - **!notes &lt;tag&gt; create** will add a new alliance to the list that we can add notes for.</t>
   </si>
   <si>
-    <t>rectum wrecker</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>jazz italia</t>
   </si>
   <si>
     <t>boricua</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>bubbarocker</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>copperpopo</t>
   </si>
   <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>creepingdeath</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
     <t>dirty diapers</t>
   </si>
   <si>
-    <t>117</t>
-  </si>
-  <si>
     <t>dracolatias</t>
   </si>
   <si>
     <t>i n0mad i</t>
   </si>
   <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>ikandy1</t>
   </si>
   <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>imothe1</t>
   </si>
   <si>
@@ -175,144 +136,66 @@
     <t>korvvish</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
     <t>msbatman</t>
   </si>
   <si>
-    <t>198</t>
-  </si>
-  <si>
     <t>nae blis</t>
   </si>
   <si>
     <t>ocivv</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>papa marsh</t>
   </si>
   <si>
     <t>peekaboo123</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>pratt11</t>
   </si>
   <si>
-    <t>199</t>
-  </si>
-  <si>
     <t>rickys ruff riders</t>
   </si>
   <si>
     <t>ru1900</t>
   </si>
   <si>
-    <t>174</t>
-  </si>
-  <si>
     <t>sarcasticahole</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>shooty pants</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>wrathavenger</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>xmousecop</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>ballndp</t>
   </si>
   <si>
     <t>event</t>
   </si>
   <si>
-    <t>War Reset</t>
-  </si>
-  <si>
-    <t>Season 7 - War 2</t>
-  </si>
-  <si>
-    <t>Final War Reset</t>
-  </si>
-  <si>
-    <t>Season 7 - War 3</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>hour</t>
   </si>
   <si>
     <t>!5min</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>!1hour</t>
   </si>
   <si>
     <t>!1day</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>SGBR</t>
   </si>
   <si>
@@ -1540,7 +1423,7 @@
     <t>Boricua</t>
   </si>
   <si>
-    <t>06 Nov 2019 00:44:19 GMT</t>
+    <t>04 Dec 2019 04:33:43 GMT</t>
   </si>
   <si>
     <t>361739579977629697</t>
@@ -1552,13 +1435,13 @@
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>06 Nov 2019 04:42:32 GMT</t>
+    <t>03 Dec 2019 23:32:55 GMT</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>06 Nov 2019 05:24:12 GMT</t>
+    <t>21 Nov 2019 01:43:44 GMT</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1567,7 +1450,7 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>05 Nov 2019 23:57:18 GMT</t>
+    <t>04 Dec 2019 05:46:49 GMT</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1585,7 +1468,7 @@
     <t>N0MADIC</t>
   </si>
   <si>
-    <t>05 Nov 2019 03:55:07 GMT</t>
+    <t>26 Nov 2019 02:50:41 GMT</t>
   </si>
   <si>
     <t>472627903104811019</t>
@@ -1594,7 +1477,7 @@
     <t>IKANDY</t>
   </si>
   <si>
-    <t>06 Nov 2019 05:00:11 GMT</t>
+    <t>04 Dec 2019 04:49:44 GMT</t>
   </si>
   <si>
     <t>623622883201253411</t>
@@ -1603,7 +1486,7 @@
     <t>imo the first</t>
   </si>
   <si>
-    <t>05 Nov 2019 20:17:03 GMT</t>
+    <t>07 Nov 2019 22:43:33 GMT</t>
   </si>
   <si>
     <t>463908810373857324</t>
@@ -1612,7 +1495,7 @@
     <t>kash314</t>
   </si>
   <si>
-    <t>06 Nov 2019 05:39:53 GMT</t>
+    <t>26 Nov 2019 02:18:39 GMT</t>
   </si>
   <si>
     <t>395979105700413451</t>
@@ -1621,7 +1504,7 @@
     <t>Korvvish</t>
   </si>
   <si>
-    <t>05 Nov 2019 22:06:11 GMT</t>
+    <t>04 Dec 2019 04:44:44 GMT</t>
   </si>
   <si>
     <t>478053793532084250</t>
@@ -1636,13 +1519,13 @@
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>06 Nov 2019 00:38:59 GMT</t>
+    <t>04 Dec 2019 03:29:37 GMT</t>
   </si>
   <si>
     <t>453762219042406401</t>
   </si>
   <si>
-    <t>15 Oct 2019 18:16:31 GMT</t>
+    <t>04 Dec 2019 00:49:42 GMT</t>
   </si>
   <si>
     <t>467426493912317953</t>
@@ -1651,7 +1534,7 @@
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>06 Nov 2019 04:54:51 GMT</t>
+    <t>04 Dec 2019 02:52:33 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1660,7 +1543,7 @@
     <t>dancingpotato</t>
   </si>
   <si>
-    <t>04 Nov 2019 04:09:19 GMT</t>
+    <t>24 Nov 2019 18:00:04 GMT</t>
   </si>
   <si>
     <t>370999241688219690</t>
@@ -1675,7 +1558,7 @@
     <t>Ricky</t>
   </si>
   <si>
-    <t>05 Nov 2019 23:19:56 GMT</t>
+    <t>04 Dec 2019 04:40:03 GMT</t>
   </si>
   <si>
     <t>621404757042659328</t>
@@ -1690,7 +1573,7 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
-    <t>06 Nov 2019 07:12:39 GMT</t>
+    <t>04 Dec 2019 00:52:02 GMT</t>
   </si>
   <si>
     <t>305697563175157760</t>
@@ -1705,7 +1588,7 @@
     <t>SilviuPOWER</t>
   </si>
   <si>
-    <t>06 Nov 2019 10:01:50 GMT</t>
+    <t>26 Nov 2019 13:28:39 GMT</t>
   </si>
   <si>
     <t>420761034941530113</t>
@@ -1732,13 +1615,31 @@
     <t>PapaBot</t>
   </si>
   <si>
-    <t>07 Nov 2019 10:00:01 GMT</t>
+    <t>08 Dec 2019 10:00:00 GMT</t>
   </si>
   <si>
     <t>482657328320217139</t>
   </si>
   <si>
-    <t>05 Nov 2019 15:44:15 GMT</t>
+    <t>07 Nov 2019 15:38:25 GMT</t>
+  </si>
+  <si>
+    <t>637334782627414036</t>
+  </si>
+  <si>
+    <t>jazzitalia</t>
+  </si>
+  <si>
+    <t>24 Nov 2019 16:03:53 GMT</t>
+  </si>
+  <si>
+    <t>643276118086123543</t>
+  </si>
+  <si>
+    <t>KandyBot</t>
+  </si>
+  <si>
+    <t>12 Nov 2019 16:01:21 GMT</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2090,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E11" sqref="E11"/>
@@ -2197,276 +2098,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2230,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
@@ -2484,228 +2238,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2725,39 +2290,39 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2780,1837 +2345,1837 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
     </row>
     <row r="266" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
     </row>
     <row r="268" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
     </row>
     <row r="269" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="271" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="272" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
     </row>
     <row r="274" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="275" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="277" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
     </row>
     <row r="278" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="280" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
     </row>
     <row r="281" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
     </row>
     <row r="283" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="284" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
     </row>
     <row r="286" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="287" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
     </row>
     <row r="289" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
     </row>
     <row r="290" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
     </row>
     <row r="292" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
     </row>
     <row r="293" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
     </row>
     <row r="295" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
     </row>
     <row r="296" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="298" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
     </row>
     <row r="299" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
     </row>
     <row r="301" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
     </row>
     <row r="302" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
     </row>
     <row r="304" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
     </row>
     <row r="307" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
     </row>
     <row r="308" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
     </row>
     <row r="310" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
     </row>
     <row r="311" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
     </row>
     <row r="313" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
     </row>
     <row r="314" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
     </row>
     <row r="316" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
     </row>
     <row r="317" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="319" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
     </row>
     <row r="320" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
     </row>
     <row r="322" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
     </row>
     <row r="325" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
     </row>
     <row r="326" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
     </row>
     <row r="328" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
     </row>
     <row r="329" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
     </row>
     <row r="331" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
     </row>
     <row r="332" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
     </row>
     <row r="334" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
     </row>
     <row r="335" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
     </row>
     <row r="337" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
     </row>
     <row r="338" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
     </row>
     <row r="340" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="341" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
     </row>
     <row r="343" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
     </row>
     <row r="344" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
     </row>
     <row r="346" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
     </row>
     <row r="347" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
     </row>
     <row r="349" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
     </row>
     <row r="350" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
     </row>
     <row r="352" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="353" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
     </row>
     <row r="355" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
     </row>
     <row r="356" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
     </row>
     <row r="358" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
     </row>
     <row r="359" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
     </row>
     <row r="361" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
     </row>
     <row r="362" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
     </row>
     <row r="364" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
     </row>
     <row r="365" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
     </row>
     <row r="367" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
     </row>
     <row r="368" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
     </row>
     <row r="370" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
     </row>
     <row r="371" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
     </row>
     <row r="373" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
     </row>
     <row r="374" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
     </row>
     <row r="376" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
     </row>
     <row r="377" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
     </row>
     <row r="379" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
     </row>
     <row r="380" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
     </row>
     <row r="394" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
     </row>
     <row r="397" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
     </row>
     <row r="398" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
     </row>
     <row r="400" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
     </row>
     <row r="401" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
     </row>
     <row r="403" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
     </row>
     <row r="404" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
     </row>
     <row r="406" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
     </row>
     <row r="407" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
     </row>
     <row r="409" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
     </row>
     <row r="410" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
     </row>
     <row r="412" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
     </row>
     <row r="413" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
     </row>
     <row r="415" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
     </row>
     <row r="416" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
     </row>
     <row r="418" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
     </row>
     <row r="419" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
     </row>
     <row r="421" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
     </row>
     <row r="422" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
     </row>
     <row r="424" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
     </row>
     <row r="425" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
     </row>
     <row r="427" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
     </row>
     <row r="428" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
     </row>
     <row r="430" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
     </row>
     <row r="431" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
     </row>
     <row r="433" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
     </row>
     <row r="434" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
     </row>
     <row r="436" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
     </row>
     <row r="437" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
     </row>
     <row r="439" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
     </row>
     <row r="440" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
     </row>
     <row r="442" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
     </row>
     <row r="443" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
     </row>
     <row r="445" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
     </row>
     <row r="446" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
     </row>
     <row r="448" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
     </row>
     <row r="449" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4620,7 +4185,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="H10" sqref="H10"/>
@@ -4630,287 +4195,309 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="C1" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="C4" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="C7" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="C8" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="C9" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="C10" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="C11" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
       <c r="C12" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="C14" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="C16" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="C17" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="C19" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="C21" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>546</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="C23" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="C24" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="B25" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="C25" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="B26" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="C26" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>560</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>522</v>
+      </c>
+      <c r="B28" t="s">
+        <v>523</v>
+      </c>
+      <c r="C28" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>525</v>
+      </c>
+      <c r="B29" t="s">
+        <v>526</v>
+      </c>
+      <c r="C29" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="563">
   <si>
     <t>allies</t>
   </si>
@@ -103,30 +103,72 @@
     <t>jazz italia</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>boricua</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>bubbarocker</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>copperpopo</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>creepingdeath</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>dirty diapers</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>dracolatias</t>
   </si>
   <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
     <t>i n0mad i</t>
   </si>
   <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
     <t>ikandy1</t>
   </si>
   <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>imothe1</t>
   </si>
   <si>
@@ -139,15 +181,27 @@
     <t>msbatman</t>
   </si>
   <si>
+    <t>174</t>
+  </si>
+  <si>
     <t>nae blis</t>
   </si>
   <si>
+    <t>177</t>
+  </si>
+  <si>
     <t>ocivv</t>
   </si>
   <si>
+    <t>178</t>
+  </si>
+  <si>
     <t>papa marsh</t>
   </si>
   <si>
+    <t>175</t>
+  </si>
+  <si>
     <t>peekaboo123</t>
   </si>
   <si>
@@ -178,24 +232,39 @@
     <t>event</t>
   </si>
   <si>
+    <t>Final War Reset</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
     <t>hour</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>!5min</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>!1hour</t>
   </si>
   <si>
     <t>!1day</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>SGBR</t>
   </si>
   <si>
@@ -205,22 +274,61 @@
     <t>TERRA</t>
   </si>
   <si>
+    <t>NFRC</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>AZNS</t>
+  </si>
+  <si>
+    <t>LZASS</t>
+  </si>
+  <si>
+    <t>TCUB</t>
+  </si>
+  <si>
+    <t>SOD</t>
+  </si>
+  <si>
     <t>Coolest and most good-looking of all the alliances</t>
   </si>
   <si>
-    <t>also i take back the earlier mean things about healz</t>
+    <t>Very strong allies. Standing truce with them for all shared wars.</t>
   </si>
   <si>
     <t>Fuck Doc Holliday, dude is a certified BITCH</t>
   </si>
   <si>
+    <t>These guys tend to have the spine of a dead fish. Pretty useless but not ambitious</t>
+  </si>
+  <si>
+    <t>Sketchy and willing to tread the line to get ahead. Generally untrustworthy</t>
+  </si>
+  <si>
+    <t>Very organized. Spiteful with sneak attacks. Talk to Killer, Cole, or Lazybones</t>
+  </si>
+  <si>
+    <t>Generally useless. Rolls over and dies</t>
+  </si>
+  <si>
+    <t>Very competitive. Always looking for top rank.</t>
+  </si>
+  <si>
+    <t>Quad is our contact. Great relationship with them. Typically always an auto-truce for shared wars.</t>
+  </si>
+  <si>
     <t>Quinn is a good war contact</t>
   </si>
   <si>
-    <t>Sneak attack often. Spiteful douchebags that will sacrifice resources just to hurt the score of alliances they don't like (us) on principle, even when they have nothing to gain.</t>
-  </si>
-  <si>
-    <t>FUCK these guys</t>
+    <t>P U N I S H E R seems to be the best war contact here but he can be unreliable with responses</t>
+  </si>
+  <si>
+    <t>Killer0414 is commander. Talk to him about war stuff - decent english. 686868 is XO, no english.</t>
+  </si>
+  <si>
+    <t>Organized and normally have a very quick start. Competitive for 1-3 place.  Trustworthy if allied. Uuuuuuuuuuuu is best contact.</t>
   </si>
   <si>
     <t>Q: What is the difference between your wife and your job?</t>
@@ -1423,7 +1531,7 @@
     <t>Boricua</t>
   </si>
   <si>
-    <t>04 Dec 2019 04:33:43 GMT</t>
+    <t>12 Dec 2019 03:57:41 GMT</t>
   </si>
   <si>
     <t>361739579977629697</t>
@@ -1435,13 +1543,13 @@
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>03 Dec 2019 23:32:55 GMT</t>
+    <t>11 Dec 2019 20:33:16 GMT</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>21 Nov 2019 01:43:44 GMT</t>
+    <t>12 Dec 2019 03:37:00 GMT</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1450,7 +1558,7 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>04 Dec 2019 05:46:49 GMT</t>
+    <t>11 Dec 2019 21:08:34 GMT</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1468,7 +1576,7 @@
     <t>N0MADIC</t>
   </si>
   <si>
-    <t>26 Nov 2019 02:50:41 GMT</t>
+    <t>11 Dec 2019 13:31:58 GMT</t>
   </si>
   <si>
     <t>472627903104811019</t>
@@ -1477,7 +1585,7 @@
     <t>IKANDY</t>
   </si>
   <si>
-    <t>04 Dec 2019 04:49:44 GMT</t>
+    <t>12 Dec 2019 05:08:27 GMT</t>
   </si>
   <si>
     <t>623622883201253411</t>
@@ -1486,7 +1594,7 @@
     <t>imo the first</t>
   </si>
   <si>
-    <t>07 Nov 2019 22:43:33 GMT</t>
+    <t>09 Dec 2019 18:57:15 GMT</t>
   </si>
   <si>
     <t>463908810373857324</t>
@@ -1495,7 +1603,7 @@
     <t>kash314</t>
   </si>
   <si>
-    <t>26 Nov 2019 02:18:39 GMT</t>
+    <t>12 Dec 2019 03:11:38 GMT</t>
   </si>
   <si>
     <t>395979105700413451</t>
@@ -1504,7 +1612,7 @@
     <t>Korvvish</t>
   </si>
   <si>
-    <t>04 Dec 2019 04:44:44 GMT</t>
+    <t>12 Dec 2019 04:20:43 GMT</t>
   </si>
   <si>
     <t>478053793532084250</t>
@@ -1519,13 +1627,13 @@
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>04 Dec 2019 03:29:37 GMT</t>
+    <t>12 Dec 2019 04:08:42 GMT</t>
   </si>
   <si>
     <t>453762219042406401</t>
   </si>
   <si>
-    <t>04 Dec 2019 00:49:42 GMT</t>
+    <t>10 Dec 2019 16:09:20 GMT</t>
   </si>
   <si>
     <t>467426493912317953</t>
@@ -1534,7 +1642,7 @@
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>04 Dec 2019 02:52:33 GMT</t>
+    <t>12 Dec 2019 05:19:48 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1543,7 +1651,7 @@
     <t>dancingpotato</t>
   </si>
   <si>
-    <t>24 Nov 2019 18:00:04 GMT</t>
+    <t>12 Dec 2019 03:53:01 GMT</t>
   </si>
   <si>
     <t>370999241688219690</t>
@@ -1558,7 +1666,7 @@
     <t>Ricky</t>
   </si>
   <si>
-    <t>04 Dec 2019 04:40:03 GMT</t>
+    <t>12 Dec 2019 05:26:29 GMT</t>
   </si>
   <si>
     <t>621404757042659328</t>
@@ -1573,7 +1681,7 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
-    <t>04 Dec 2019 00:52:02 GMT</t>
+    <t>12 Dec 2019 09:59:54 GMT</t>
   </si>
   <si>
     <t>305697563175157760</t>
@@ -1588,7 +1696,7 @@
     <t>SilviuPOWER</t>
   </si>
   <si>
-    <t>26 Nov 2019 13:28:39 GMT</t>
+    <t>10 Dec 2019 18:08:41 GMT</t>
   </si>
   <si>
     <t>420761034941530113</t>
@@ -1615,13 +1723,10 @@
     <t>PapaBot</t>
   </si>
   <si>
-    <t>08 Dec 2019 10:00:00 GMT</t>
-  </si>
-  <si>
     <t>482657328320217139</t>
   </si>
   <si>
-    <t>07 Nov 2019 15:38:25 GMT</t>
+    <t>10 Dec 2019 18:36:03 GMT</t>
   </si>
   <si>
     <t>637334782627414036</t>
@@ -1630,7 +1735,7 @@
     <t>jazzitalia</t>
   </si>
   <si>
-    <t>24 Nov 2019 16:03:53 GMT</t>
+    <t>10 Dec 2019 18:41:43 GMT</t>
   </si>
   <si>
     <t>643276118086123543</t>
@@ -2090,7 +2195,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E11" sqref="E11"/>
@@ -2098,129 +2203,225 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2431,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
@@ -2238,39 +2439,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2502,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B10" sqref="B10"/>
@@ -2288,41 +2510,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>54</v>
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2345,1837 +2602,1837 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
     </row>
     <row r="266" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
     </row>
     <row r="268" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
     </row>
     <row r="269" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
     </row>
     <row r="271" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
     </row>
     <row r="272" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
     </row>
     <row r="274" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="275" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
     </row>
     <row r="277" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
     </row>
     <row r="278" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="280" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="281" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
     </row>
     <row r="283" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
     </row>
     <row r="284" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
     </row>
     <row r="286" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
     </row>
     <row r="287" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
     </row>
     <row r="289" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
     </row>
     <row r="290" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
     </row>
     <row r="292" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="293" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="295" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
     </row>
     <row r="296" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
     </row>
     <row r="298" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
     </row>
     <row r="299" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="301" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="302" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
     </row>
     <row r="304" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
     </row>
     <row r="307" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
     </row>
     <row r="308" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
     </row>
     <row r="310" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
     </row>
     <row r="311" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
     </row>
     <row r="313" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
     </row>
     <row r="314" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
     </row>
     <row r="316" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
     </row>
     <row r="317" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
     </row>
     <row r="319" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
     </row>
     <row r="320" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
     </row>
     <row r="322" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
     </row>
     <row r="325" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
     </row>
     <row r="326" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
     </row>
     <row r="328" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
     </row>
     <row r="329" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
     </row>
     <row r="331" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
     </row>
     <row r="332" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
     </row>
     <row r="334" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
     </row>
     <row r="335" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
     </row>
     <row r="337" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
     </row>
     <row r="338" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
     </row>
     <row r="340" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
     </row>
     <row r="341" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
     </row>
     <row r="343" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
     </row>
     <row r="344" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
     </row>
     <row r="346" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
     </row>
     <row r="347" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
     </row>
     <row r="349" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
     </row>
     <row r="350" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
     </row>
     <row r="352" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
     </row>
     <row r="353" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
     </row>
     <row r="355" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
     </row>
     <row r="356" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
     </row>
     <row r="358" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
     </row>
     <row r="359" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
     </row>
     <row r="361" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
     </row>
     <row r="362" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
     </row>
     <row r="364" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
     </row>
     <row r="365" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
     </row>
     <row r="367" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
     </row>
     <row r="368" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
     </row>
     <row r="370" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
     </row>
     <row r="371" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
     </row>
     <row r="373" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
     </row>
     <row r="374" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
     </row>
     <row r="376" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
     </row>
     <row r="377" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
     </row>
     <row r="379" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
     </row>
     <row r="380" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
     </row>
     <row r="394" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
     </row>
     <row r="397" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
     </row>
     <row r="398" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
     </row>
     <row r="400" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
     </row>
     <row r="401" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
     </row>
     <row r="403" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
     </row>
     <row r="404" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
     </row>
     <row r="406" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
     </row>
     <row r="407" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
     </row>
     <row r="409" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
     </row>
     <row r="410" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
     </row>
     <row r="412" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
     </row>
     <row r="413" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
     </row>
     <row r="415" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
     </row>
     <row r="416" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
     </row>
     <row r="418" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
     </row>
     <row r="419" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
     </row>
     <row r="421" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
     </row>
     <row r="422" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
     </row>
     <row r="424" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
     </row>
     <row r="425" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
     </row>
     <row r="427" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
     </row>
     <row r="428" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
     </row>
     <row r="430" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
     </row>
     <row r="431" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
     </row>
     <row r="433" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
     </row>
     <row r="434" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
     </row>
     <row r="439" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
     </row>
     <row r="440" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
     </row>
     <row r="442" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
     </row>
     <row r="443" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
     </row>
     <row r="445" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
     </row>
     <row r="446" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="448" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="449" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -4195,309 +4452,309 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="C1" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="C6" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="C7" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="C9" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="C10" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="C11" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="C14" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="C17" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="C19" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="C21" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="C23" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="C24" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="B25" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="C25" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="B26" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="C26" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="B28" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C28" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B29" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C29" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="564">
   <si>
     <t>allies</t>
   </si>
@@ -100,75 +100,33 @@
  - **!notes &lt;tag&gt; create** will add a new alliance to the list that we can add notes for.</t>
   </si>
   <si>
-    <t>jazz italia</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>ii orion ii</t>
   </si>
   <si>
     <t>boricua</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>bubbarocker</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>copperpopo</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>creepingdeath</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>dirty diapers</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>dracolatias</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
     <t>i n0mad i</t>
   </si>
   <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>ikandy1</t>
   </si>
   <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>imothe1</t>
   </si>
   <si>
@@ -181,27 +139,15 @@
     <t>msbatman</t>
   </si>
   <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>nae blis</t>
-  </si>
-  <si>
-    <t>177</t>
+    <t>ch20</t>
   </si>
   <si>
     <t>ocivv</t>
   </si>
   <si>
-    <t>178</t>
-  </si>
-  <si>
     <t>papa marsh</t>
   </si>
   <si>
-    <t>175</t>
-  </si>
-  <si>
     <t>peekaboo123</t>
   </si>
   <si>
@@ -232,39 +178,24 @@
     <t>event</t>
   </si>
   <si>
-    <t>Final War Reset</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
     <t>hour</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>!5min</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>!1hour</t>
   </si>
   <si>
     <t>!1day</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>SGBR</t>
   </si>
   <si>
@@ -292,6 +223,27 @@
     <t>SOD</t>
   </si>
   <si>
+    <t>EXASN</t>
+  </si>
+  <si>
+    <t>SONZ</t>
+  </si>
+  <si>
+    <t>WSIDE</t>
+  </si>
+  <si>
+    <t>UNSAM</t>
+  </si>
+  <si>
+    <t>NLX</t>
+  </si>
+  <si>
+    <t>HE01</t>
+  </si>
+  <si>
+    <t>684KR</t>
+  </si>
+  <si>
     <t>Coolest and most good-looking of all the alliances</t>
   </si>
   <si>
@@ -307,28 +259,61 @@
     <t>Sketchy and willing to tread the line to get ahead. Generally untrustworthy</t>
   </si>
   <si>
+    <t>cobas is a war contact</t>
+  </si>
+  <si>
+    <t>Generally useless. Rolls over and dies</t>
+  </si>
+  <si>
+    <t>Very competitive. Always looking for top rank.</t>
+  </si>
+  <si>
+    <t>VERY ambitious. Season 8, rank 1.</t>
+  </si>
+  <si>
+    <t>Skenz4Squad (commander) is the best contact. Have allied with them multiple times successfully. Solid truce option.</t>
+  </si>
+  <si>
+    <t>LuckyIAm is a war contact.</t>
+  </si>
+  <si>
+    <t>13DAV13 is a war contact</t>
+  </si>
+  <si>
+    <t>Waited around before committing to anything - seems like they wanted to put us off while they shopped their options</t>
+  </si>
+  <si>
+    <t>Arborash is a war contact</t>
+  </si>
+  <si>
+    <t>TollBoothKyle is generally the go-to person. A bit of bad blood with these guys, but probably just water under the bridge at this point. Rub them the wrong way, and they’ll react spitefully at their own expense.</t>
+  </si>
+  <si>
+    <t>Tiger, Jungssi, and S A Y E R are English speakers</t>
+  </si>
+  <si>
+    <t>Quinn is a good war contact</t>
+  </si>
+  <si>
     <t>Very organized. Spiteful with sneak attacks. Talk to Killer, Cole, or Lazybones</t>
   </si>
   <si>
-    <t>Generally useless. Rolls over and dies</t>
-  </si>
-  <si>
-    <t>Very competitive. Always looking for top rank.</t>
+    <t>Organized and normally have a very quick start. Competitive for 1-3 place.  Trustworthy if allied. Uuuuuuuuuuuu is best contact.</t>
+  </si>
+  <si>
+    <t>No more Quad. Dori Shera and Morph are both good war contacts.</t>
+  </si>
+  <si>
+    <t>StoneGhost (commander) also works for contact.</t>
+  </si>
+  <si>
+    <t>Killer0414 is commander. Talk to him about war stuff - decent english. 686868 is XO, no english.</t>
   </si>
   <si>
     <t>Quad is our contact. Great relationship with them. Typically always an auto-truce for shared wars.</t>
   </si>
   <si>
-    <t>Quinn is a good war contact</t>
-  </si>
-  <si>
-    <t>P U N I S H E R seems to be the best war contact here but he can be unreliable with responses</t>
-  </si>
-  <si>
-    <t>Killer0414 is commander. Talk to him about war stuff - decent english. 686868 is XO, no english.</t>
-  </si>
-  <si>
-    <t>Organized and normally have a very quick start. Competitive for 1-3 place.  Trustworthy if allied. Uuuuuuuuuuuu is best contact.</t>
+    <t>SirTrueDaddy is the best war contact</t>
   </si>
   <si>
     <t>Q: What is the difference between your wife and your job?</t>
@@ -1531,7 +1516,7 @@
     <t>Boricua</t>
   </si>
   <si>
-    <t>12 Dec 2019 03:57:41 GMT</t>
+    <t>04 Jan 2020 19:12:28 GMT</t>
   </si>
   <si>
     <t>361739579977629697</t>
@@ -1543,13 +1528,13 @@
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>11 Dec 2019 20:33:16 GMT</t>
+    <t>05 Jan 2020 04:01:26 GMT</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>12 Dec 2019 03:37:00 GMT</t>
+    <t>05 Jan 2020 00:20:03 GMT</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1558,7 +1543,7 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>11 Dec 2019 21:08:34 GMT</t>
+    <t>05 Jan 2020 06:09:37 GMT</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1576,7 +1561,7 @@
     <t>N0MADIC</t>
   </si>
   <si>
-    <t>11 Dec 2019 13:31:58 GMT</t>
+    <t>05 Jan 2020 08:03:07 GMT</t>
   </si>
   <si>
     <t>472627903104811019</t>
@@ -1585,7 +1570,7 @@
     <t>IKANDY</t>
   </si>
   <si>
-    <t>12 Dec 2019 05:08:27 GMT</t>
+    <t>05 Jan 2020 08:24:09 GMT</t>
   </si>
   <si>
     <t>623622883201253411</t>
@@ -1594,7 +1579,7 @@
     <t>imo the first</t>
   </si>
   <si>
-    <t>09 Dec 2019 18:57:15 GMT</t>
+    <t>03 Jan 2020 19:50:54 GMT</t>
   </si>
   <si>
     <t>463908810373857324</t>
@@ -1603,7 +1588,7 @@
     <t>kash314</t>
   </si>
   <si>
-    <t>12 Dec 2019 03:11:38 GMT</t>
+    <t>05 Jan 2020 05:56:56 GMT</t>
   </si>
   <si>
     <t>395979105700413451</t>
@@ -1612,13 +1597,13 @@
     <t>Korvvish</t>
   </si>
   <si>
-    <t>12 Dec 2019 04:20:43 GMT</t>
+    <t>05 Jan 2020 02:02:52 GMT</t>
   </si>
   <si>
     <t>478053793532084250</t>
   </si>
   <si>
-    <t>15 Oct 2019 06:22:01 GMT</t>
+    <t>04 Jan 2020 17:38:00 GMT</t>
   </si>
   <si>
     <t>409471590988906508</t>
@@ -1627,13 +1612,10 @@
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>12 Dec 2019 04:08:42 GMT</t>
-  </si>
-  <si>
     <t>453762219042406401</t>
   </si>
   <si>
-    <t>10 Dec 2019 16:09:20 GMT</t>
+    <t>04 Jan 2020 18:04:42 GMT</t>
   </si>
   <si>
     <t>467426493912317953</t>
@@ -1642,7 +1624,7 @@
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>12 Dec 2019 05:19:48 GMT</t>
+    <t>05 Jan 2020 04:37:29 GMT</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1651,7 +1633,7 @@
     <t>dancingpotato</t>
   </si>
   <si>
-    <t>12 Dec 2019 03:53:01 GMT</t>
+    <t>05 Jan 2020 04:59:11 GMT</t>
   </si>
   <si>
     <t>370999241688219690</t>
@@ -1666,7 +1648,7 @@
     <t>Ricky</t>
   </si>
   <si>
-    <t>12 Dec 2019 05:26:29 GMT</t>
+    <t>03 Jan 2020 10:12:52 GMT</t>
   </si>
   <si>
     <t>621404757042659328</t>
@@ -1681,7 +1663,7 @@
     <t>SarcasticAhole</t>
   </si>
   <si>
-    <t>12 Dec 2019 09:59:54 GMT</t>
+    <t>05 Jan 2020 04:13:07 GMT</t>
   </si>
   <si>
     <t>305697563175157760</t>
@@ -1696,7 +1678,7 @@
     <t>SilviuPOWER</t>
   </si>
   <si>
-    <t>10 Dec 2019 18:08:41 GMT</t>
+    <t>05 Jan 2020 09:06:11 GMT</t>
   </si>
   <si>
     <t>420761034941530113</t>
@@ -1705,7 +1687,7 @@
     <t>mousecop</t>
   </si>
   <si>
-    <t>06 Nov 2019 00:38:39 GMT</t>
+    <t>04 Jan 2020 23:52:21 GMT</t>
   </si>
   <si>
     <t>431633842634358794</t>
@@ -1723,10 +1705,13 @@
     <t>PapaBot</t>
   </si>
   <si>
+    <t>05 Jan 2020 09:59:56 GMT</t>
+  </si>
+  <si>
     <t>482657328320217139</t>
   </si>
   <si>
-    <t>10 Dec 2019 18:36:03 GMT</t>
+    <t>04 Jan 2020 17:50:21 GMT</t>
   </si>
   <si>
     <t>637334782627414036</t>
@@ -1735,7 +1720,7 @@
     <t>jazzitalia</t>
   </si>
   <si>
-    <t>10 Dec 2019 18:41:43 GMT</t>
+    <t>18 Dec 2019 15:57:36 GMT</t>
   </si>
   <si>
     <t>643276118086123543</t>
@@ -1745,6 +1730,24 @@
   </si>
   <si>
     <t>12 Nov 2019 16:01:21 GMT</t>
+  </si>
+  <si>
+    <t>172701756206088194</t>
+  </si>
+  <si>
+    <t>Killer1</t>
+  </si>
+  <si>
+    <t>05 Jan 2020 09:13:32 GMT</t>
+  </si>
+  <si>
+    <t>355500083283755011</t>
+  </si>
+  <si>
+    <t>CH20</t>
+  </si>
+  <si>
+    <t>05 Jan 2020 04:30:49 GMT</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +2198,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E11" sqref="E11"/>
@@ -2203,225 +2206,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2431,7 +2338,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
@@ -2439,60 +2346,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2388,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B10" sqref="B10"/>
@@ -2510,76 +2396,132 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Q2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
+      <c r="S2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
+      <c r="U2" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="W2" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Y2" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AA2" t="s">
         <v>75</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AC2" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AE2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K3" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O3" t="s">
         <v>80</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q3" t="s">
         <v>81</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Y3" t="s">
         <v>82</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="4" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
         <v>83</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q4" t="s">
         <v>84</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Y4" t="s">
         <v>85</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2602,1837 +2544,1837 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="266" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="268" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="269" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="271" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="272" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="274" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="275" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="277" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="278" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="280" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="281" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="283" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="284" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="286" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="287" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="289" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="290" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="292" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="293" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="295" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="296" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="298" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="299" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="301" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="302" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="304" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="307" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="308" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="310" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="311" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="313" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="314" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="316" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="317" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="319" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="320" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="322" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="325" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="326" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="328" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="329" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="331" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="332" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="334" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="335" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="337" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="338" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="340" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="341" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="343" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="344" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="346" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="347" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="349" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="350" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="352" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="353" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="355" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="356" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="358" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="359" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="361" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="362" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="364" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="365" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="367" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="368" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="370" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="371" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="373" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="374" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="376" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="377" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="379" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="380" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="394" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="397" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="398" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="400" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="401" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="403" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="404" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="406" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="407" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="409" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="410" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="412" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="413" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="415" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="416" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="418" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="419" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="421" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="422" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="424" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="425" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="427" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="428" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="430" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="431" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="433" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="434" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="436" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="437" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="439" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="440" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="442" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="443" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="445" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="446" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="448" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="449" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -4442,7 +4384,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="H10" sqref="H10"/>
@@ -4452,309 +4394,331 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C10" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C14" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C16" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C17" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C19" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C21" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C23" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C24" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B25" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C25" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B26" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C26" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B28" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C28" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>555</v>
+      </c>
+      <c r="B29" t="s">
+        <v>556</v>
+      </c>
+      <c r="C29" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>558</v>
+      </c>
+      <c r="B30" t="s">
+        <v>559</v>
+      </c>
+      <c r="C30" t="s">
         <v>560</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>561</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B31" t="s">
         <v>562</v>
+      </c>
+      <c r="C31" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="536">
   <si>
     <t>allies</t>
   </si>
@@ -103,7 +103,7 @@
     <t>ii orion ii</t>
   </si>
   <si>
-    <t>boricua</t>
+    <t/>
   </si>
   <si>
     <t>bubbarocker</t>
@@ -118,7 +118,7 @@
     <t>dirty diapers</t>
   </si>
   <si>
-    <t>dracolatias</t>
+    <t>1badtango</t>
   </si>
   <si>
     <t>i n0mad i</t>
@@ -169,7 +169,7 @@
     <t>wrathavenger</t>
   </si>
   <si>
-    <t>xmousecop</t>
+    <t>nae blis</t>
   </si>
   <si>
     <t>ballndp</t>
@@ -1501,49 +1501,151 @@
     <t xml:space="preserve">A: Chicken Poodle soup Girls are like math problems. If they are under 18, it's best you do them in your head. </t>
   </si>
   <si>
-    <t>427515063507877888</t>
-  </si>
-  <si>
-    <t>mjm1976m</t>
-  </si>
-  <si>
-    <t>30 Oct 2019 01:22:24 GMT</t>
-  </si>
-  <si>
-    <t>117048304646225924</t>
-  </si>
-  <si>
-    <t>Boricua</t>
-  </si>
-  <si>
-    <t>04 Jan 2020 19:12:28 GMT</t>
+    <t>172701756206088194</t>
+  </si>
+  <si>
+    <t>Killer1</t>
+  </si>
+  <si>
+    <t>1/6 at 4:1</t>
+  </si>
+  <si>
+    <t>214042704357621760</t>
+  </si>
+  <si>
+    <t>dancingpotato</t>
+  </si>
+  <si>
+    <t>246021971601522688</t>
+  </si>
+  <si>
+    <t>WrathAvenger</t>
+  </si>
+  <si>
+    <t>305697563175157760</t>
+  </si>
+  <si>
+    <t>shooty-pants</t>
+  </si>
+  <si>
+    <t>355500083283755011</t>
+  </si>
+  <si>
+    <t>CH20</t>
   </si>
   <si>
     <t>361739579977629697</t>
   </si>
   <si>
+    <t>370999241688219690</t>
+  </si>
+  <si>
+    <t>Pratt</t>
+  </si>
+  <si>
+    <t>395979105700413451</t>
+  </si>
+  <si>
+    <t>Korvvish</t>
+  </si>
+  <si>
+    <t>409471590988906508</t>
+  </si>
+  <si>
+    <t>Nae’blis</t>
+  </si>
+  <si>
+    <t>1/5 at 23:35</t>
+  </si>
+  <si>
+    <t>453762219042406401</t>
+  </si>
+  <si>
+    <t>463908810373857324</t>
+  </si>
+  <si>
+    <t>kash314</t>
+  </si>
+  <si>
+    <t>467426493912317953</t>
+  </si>
+  <si>
+    <t>PapaMarsh</t>
+  </si>
+  <si>
+    <t>1/5 at 23:55</t>
+  </si>
+  <si>
+    <t>472627903104811019</t>
+  </si>
+  <si>
+    <t>IKANDY</t>
+  </si>
+  <si>
+    <t>1/6 at 1:8</t>
+  </si>
+  <si>
+    <t>477018053133991937</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>478053793532084250</t>
+  </si>
+  <si>
+    <t>482558289746329603</t>
+  </si>
+  <si>
+    <t>1BadTang0</t>
+  </si>
+  <si>
+    <t>482657328320217139</t>
+  </si>
+  <si>
+    <t>484126152571617280</t>
+  </si>
+  <si>
+    <t>N0MADIC</t>
+  </si>
+  <si>
+    <t>535659584027754497</t>
+  </si>
+  <si>
+    <t>SarcasticAhole</t>
+  </si>
+  <si>
     <t>568608386791243799</t>
   </si>
   <si>
     <t>Copperpopo</t>
   </si>
   <si>
-    <t>05 Jan 2020 04:01:26 GMT</t>
+    <t>621354689501593620</t>
+  </si>
+  <si>
+    <t>PapaBot</t>
+  </si>
+  <si>
+    <t>1/6 at 4:59</t>
+  </si>
+  <si>
+    <t>621364830418239516</t>
+  </si>
+  <si>
+    <t>pilfer009</t>
+  </si>
+  <si>
+    <t>1/6 at 2:39</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
-    <t>05 Jan 2020 00:20:03 GMT</t>
-  </si>
-  <si>
-    <t>621364830418239516</t>
-  </si>
-  <si>
-    <t>pilfer009</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 06:09:37 GMT</t>
+    <t>621404757042659328</t>
+  </si>
+  <si>
+    <t>Ru</t>
   </si>
   <si>
     <t>623316383975079967</t>
@@ -1552,218 +1654,25 @@
     <t>Draco</t>
   </si>
   <si>
-    <t>15 Oct 2019 15:04:17 GMT</t>
-  </si>
-  <si>
-    <t>484126152571617280</t>
-  </si>
-  <si>
-    <t>N0MADIC</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 08:03:07 GMT</t>
-  </si>
-  <si>
-    <t>472627903104811019</t>
-  </si>
-  <si>
-    <t>IKANDY</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 08:24:09 GMT</t>
-  </si>
-  <si>
     <t>623622883201253411</t>
   </si>
   <si>
     <t>imo the first</t>
   </si>
   <si>
-    <t>03 Jan 2020 19:50:54 GMT</t>
-  </si>
-  <si>
-    <t>463908810373857324</t>
-  </si>
-  <si>
-    <t>kash314</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 05:56:56 GMT</t>
-  </si>
-  <si>
-    <t>395979105700413451</t>
-  </si>
-  <si>
-    <t>Korvvish</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 02:02:52 GMT</t>
-  </si>
-  <si>
-    <t>478053793532084250</t>
-  </si>
-  <si>
-    <t>04 Jan 2020 17:38:00 GMT</t>
-  </si>
-  <si>
-    <t>409471590988906508</t>
-  </si>
-  <si>
-    <t>Nae’blis</t>
-  </si>
-  <si>
-    <t>453762219042406401</t>
-  </si>
-  <si>
-    <t>04 Jan 2020 18:04:42 GMT</t>
-  </si>
-  <si>
-    <t>467426493912317953</t>
-  </si>
-  <si>
-    <t>PapaMarsh</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 04:37:29 GMT</t>
-  </si>
-  <si>
-    <t>214042704357621760</t>
-  </si>
-  <si>
-    <t>dancingpotato</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 04:59:11 GMT</t>
-  </si>
-  <si>
-    <t>370999241688219690</t>
-  </si>
-  <si>
-    <t>Pratt</t>
-  </si>
-  <si>
-    <t>477018053133991937</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>03 Jan 2020 10:12:52 GMT</t>
-  </si>
-  <si>
-    <t>621404757042659328</t>
-  </si>
-  <si>
-    <t>Ru</t>
-  </si>
-  <si>
-    <t>535659584027754497</t>
-  </si>
-  <si>
-    <t>SarcasticAhole</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 04:13:07 GMT</t>
-  </si>
-  <si>
-    <t>305697563175157760</t>
-  </si>
-  <si>
-    <t>shooty-pants</t>
-  </si>
-  <si>
-    <t>246021971601522688</t>
-  </si>
-  <si>
-    <t>SilviuPOWER</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 09:06:11 GMT</t>
-  </si>
-  <si>
-    <t>420761034941530113</t>
-  </si>
-  <si>
-    <t>mousecop</t>
-  </si>
-  <si>
-    <t>04 Jan 2020 23:52:21 GMT</t>
-  </si>
-  <si>
-    <t>431633842634358794</t>
-  </si>
-  <si>
-    <t>Kamakrazy</t>
-  </si>
-  <si>
-    <t>07 Oct 2019 19:37:01 GMT</t>
-  </si>
-  <si>
-    <t>621354689501593620</t>
-  </si>
-  <si>
-    <t>PapaBot</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 09:59:56 GMT</t>
-  </si>
-  <si>
-    <t>482657328320217139</t>
-  </si>
-  <si>
-    <t>04 Jan 2020 17:50:21 GMT</t>
-  </si>
-  <si>
-    <t>637334782627414036</t>
-  </si>
-  <si>
-    <t>jazzitalia</t>
-  </si>
-  <si>
-    <t>18 Dec 2019 15:57:36 GMT</t>
-  </si>
-  <si>
     <t>643276118086123543</t>
   </si>
   <si>
     <t>KandyBot</t>
-  </si>
-  <si>
-    <t>12 Nov 2019 16:01:21 GMT</t>
-  </si>
-  <si>
-    <t>172701756206088194</t>
-  </si>
-  <si>
-    <t>Killer1</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 09:13:32 GMT</t>
-  </si>
-  <si>
-    <t>355500083283755011</t>
-  </si>
-  <si>
-    <t>CH20</t>
-  </si>
-  <si>
-    <t>05 Jan 2020 04:30:49 GMT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
@@ -1790,7 +1699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1798,8 +1707,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4384,7 +4291,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="H10" sqref="H10"/>
@@ -4393,332 +4300,237 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>482</v>
       </c>
       <c r="C1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>484</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>485</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="C4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C13" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>509</v>
+      </c>
+      <c r="B14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>512</v>
+      </c>
+      <c r="B16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>514</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>517</v>
+      </c>
+      <c r="B19" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>519</v>
+      </c>
+      <c r="B20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>521</v>
+      </c>
+      <c r="B21" t="s">
+        <v>522</v>
+      </c>
+      <c r="C21" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>524</v>
+      </c>
+      <c r="B22" t="s">
+        <v>525</v>
+      </c>
+      <c r="C22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>527</v>
+      </c>
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C8" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="C9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="C11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="C12" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C14" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="C16" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="C17" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>528</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B24" t="s">
         <v>529</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B25" t="s">
         <v>531</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B26" t="s">
         <v>533</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>534</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B27" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="C23" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="C24" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>544</v>
-      </c>
-      <c r="B25" t="s">
-        <v>545</v>
-      </c>
-      <c r="C25" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>547</v>
-      </c>
-      <c r="B26" t="s">
-        <v>548</v>
-      </c>
-      <c r="C26" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>550</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>552</v>
-      </c>
-      <c r="B28" t="s">
-        <v>553</v>
-      </c>
-      <c r="C28" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>555</v>
-      </c>
-      <c r="B29" t="s">
-        <v>556</v>
-      </c>
-      <c r="C29" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>558</v>
-      </c>
-      <c r="B30" t="s">
-        <v>559</v>
-      </c>
-      <c r="C30" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>561</v>
-      </c>
-      <c r="B31" t="s">
-        <v>562</v>
-      </c>
-      <c r="C31" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="563">
   <si>
     <t>allies</t>
   </si>
@@ -178,24 +178,57 @@
     <t>event</t>
   </si>
   <si>
+    <t>Final War Reset</t>
+  </si>
+  <si>
+    <t>Season 9 - War 3</t>
+  </si>
+  <si>
+    <t>War Reset</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>hour</t>
   </si>
   <si>
     <t>!5min</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>!1hour</t>
   </si>
   <si>
     <t>!1day</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>SGBR</t>
   </si>
   <si>
@@ -244,6 +277,9 @@
     <t>684KR</t>
   </si>
   <si>
+    <t>AE3GO</t>
+  </si>
+  <si>
     <t>Coolest and most good-looking of all the alliances</t>
   </si>
   <si>
@@ -277,33 +313,36 @@
     <t>LuckyIAm is a war contact.</t>
   </si>
   <si>
+    <t>Solid ally, relatively strong but nothing crazy</t>
+  </si>
+  <si>
+    <t>Waited around before committing to anything - seems like they wanted to put us off while they shopped their options</t>
+  </si>
+  <si>
+    <t>Arborash is a war contact</t>
+  </si>
+  <si>
+    <t>TollBoothKyle is generally the go-to person. A bit of bad blood with these guys, but probably just water under the bridge at this point. Rub them the wrong way, and they’ll react spitefully at their own expense.</t>
+  </si>
+  <si>
+    <t>Tiger, Jungssi, and S A Y E R are English speakers</t>
+  </si>
+  <si>
+    <t>Quinn is a good war contact</t>
+  </si>
+  <si>
+    <t>Very organized. Spiteful with sneak attacks. Talk to Killer, Cole, or Lazybones</t>
+  </si>
+  <si>
+    <t>Organized and normally have a very quick start. Competitive for 1-3 place.  Trustworthy if allied. Uuuuuuuuuuuu is best contact.</t>
+  </si>
+  <si>
+    <t>No more Quad. Dori Shera and Morph are both good war contacts.</t>
+  </si>
+  <si>
     <t>13DAV13 is a war contact</t>
   </si>
   <si>
-    <t>Waited around before committing to anything - seems like they wanted to put us off while they shopped their options</t>
-  </si>
-  <si>
-    <t>Arborash is a war contact</t>
-  </si>
-  <si>
-    <t>TollBoothKyle is generally the go-to person. A bit of bad blood with these guys, but probably just water under the bridge at this point. Rub them the wrong way, and they’ll react spitefully at their own expense.</t>
-  </si>
-  <si>
-    <t>Tiger, Jungssi, and S A Y E R are English speakers</t>
-  </si>
-  <si>
-    <t>Quinn is a good war contact</t>
-  </si>
-  <si>
-    <t>Very organized. Spiteful with sneak attacks. Talk to Killer, Cole, or Lazybones</t>
-  </si>
-  <si>
-    <t>Organized and normally have a very quick start. Competitive for 1-3 place.  Trustworthy if allied. Uuuuuuuuuuuu is best contact.</t>
-  </si>
-  <si>
-    <t>No more Quad. Dori Shera and Morph are both good war contacts.</t>
-  </si>
-  <si>
     <t>StoneGhost (commander) also works for contact.</t>
   </si>
   <si>
@@ -1507,7 +1546,7 @@
     <t>Killer1</t>
   </si>
   <si>
-    <t>1/6 at 4:1</t>
+    <t>1/7 at 6:20</t>
   </si>
   <si>
     <t>214042704357621760</t>
@@ -1516,12 +1555,18 @@
     <t>dancingpotato</t>
   </si>
   <si>
+    <t>1/8 at 11:58</t>
+  </si>
+  <si>
     <t>246021971601522688</t>
   </si>
   <si>
     <t>WrathAvenger</t>
   </si>
   <si>
+    <t>1/8 at 12:20</t>
+  </si>
+  <si>
     <t>305697563175157760</t>
   </si>
   <si>
@@ -1534,6 +1579,9 @@
     <t>CH20</t>
   </si>
   <si>
+    <t>1/8 at 19:57</t>
+  </si>
+  <si>
     <t>361739579977629697</t>
   </si>
   <si>
@@ -1549,31 +1597,40 @@
     <t>Korvvish</t>
   </si>
   <si>
+    <t>1/8 at 19:16</t>
+  </si>
+  <si>
     <t>409471590988906508</t>
   </si>
   <si>
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>1/5 at 23:35</t>
+    <t>1/8 at 22:36</t>
   </si>
   <si>
     <t>453762219042406401</t>
   </si>
   <si>
+    <t>1/7 at 23:02</t>
+  </si>
+  <si>
     <t>463908810373857324</t>
   </si>
   <si>
     <t>kash314</t>
   </si>
   <si>
+    <t>1/8 at 21:03</t>
+  </si>
+  <si>
     <t>467426493912317953</t>
   </si>
   <si>
     <t>PapaMarsh</t>
   </si>
   <si>
-    <t>1/5 at 23:55</t>
+    <t>1/8 at 23:22</t>
   </si>
   <si>
     <t>472627903104811019</t>
@@ -1582,7 +1639,7 @@
     <t>IKANDY</t>
   </si>
   <si>
-    <t>1/6 at 1:8</t>
+    <t>1/8 at 23:13</t>
   </si>
   <si>
     <t>477018053133991937</t>
@@ -1591,6 +1648,9 @@
     <t>Ricky</t>
   </si>
   <si>
+    <t>1/9 at 0:35</t>
+  </si>
+  <si>
     <t>478053793532084250</t>
   </si>
   <si>
@@ -1600,34 +1660,49 @@
     <t>1BadTang0</t>
   </si>
   <si>
+    <t>1/6 at 23:29</t>
+  </si>
+  <si>
     <t>482657328320217139</t>
   </si>
   <si>
+    <t>1/7 at 11:16</t>
+  </si>
+  <si>
     <t>484126152571617280</t>
   </si>
   <si>
     <t>N0MADIC</t>
   </si>
   <si>
+    <t>1/8 at 22:55</t>
+  </si>
+  <si>
     <t>535659584027754497</t>
   </si>
   <si>
     <t>SarcasticAhole</t>
   </si>
   <si>
+    <t>1/8 at 13:32</t>
+  </si>
+  <si>
     <t>568608386791243799</t>
   </si>
   <si>
     <t>Copperpopo</t>
   </si>
   <si>
+    <t>1/8 at 15:08</t>
+  </si>
+  <si>
     <t>621354689501593620</t>
   </si>
   <si>
     <t>PapaBot</t>
   </si>
   <si>
-    <t>1/6 at 4:59</t>
+    <t>1/9 at 4:59</t>
   </si>
   <si>
     <t>621364830418239516</t>
@@ -1636,12 +1711,15 @@
     <t>pilfer009</t>
   </si>
   <si>
-    <t>1/6 at 2:39</t>
+    <t>1/8 at 23:33</t>
   </si>
   <si>
     <t>621375239909015552</t>
   </si>
   <si>
+    <t>1/8 at 14:09</t>
+  </si>
+  <si>
     <t>621404757042659328</t>
   </si>
   <si>
@@ -1658,6 +1736,9 @@
   </si>
   <si>
     <t>imo the first</t>
+  </si>
+  <si>
+    <t>1/6 at 15:8</t>
   </si>
   <si>
     <t>643276118086123543</t>
@@ -2245,7 +2326,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
@@ -2253,39 +2334,144 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +2481,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B10" sqref="B10"/>
@@ -2303,132 +2489,138 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="U1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="W1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="Y1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AA1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AC1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AE1" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="U2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="W2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="Y2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AA2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="AC2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AE2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="W3" t="s">
+        <v>94</v>
       </c>
       <c r="Y3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="11:25" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="Q4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="Y4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2451,1837 +2643,1837 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="266" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="268" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="269" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="271" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="272" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="274" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="275" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="277" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="278" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="280" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="281" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="283" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="284" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="286" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="287" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="289" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="290" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="292" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="293" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="295" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="296" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="298" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="299" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="301" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="302" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="304" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="307" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="308" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="310" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="311" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="313" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="314" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="316" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="317" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="319" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="320" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="322" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="325" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="326" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="328" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="329" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="331" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="332" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="334" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="335" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="337" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="338" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="340" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="341" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="343" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="344" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="346" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="347" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="349" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="350" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="352" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="353" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="355" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="356" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="358" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="359" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="361" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="362" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="364" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="365" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="367" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="368" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="370" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="371" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="373" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="374" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="376" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="377" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="379" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="380" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="394" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="397" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="398" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="400" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="401" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="403" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="404" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="406" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="407" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="409" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="410" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="412" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="413" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="415" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="416" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="418" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="419" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="421" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="422" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="424" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="425" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="427" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="428" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
     </row>
     <row r="430" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="431" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="433" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
     </row>
     <row r="434" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="436" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
     </row>
     <row r="437" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="439" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="440" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="442" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="443" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="445" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="446" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
     </row>
     <row r="448" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="449" ht="15" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4301,50 +4493,59 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="B1" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="C1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>501</v>
+      </c>
+      <c r="C3" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>506</v>
+      </c>
+      <c r="C5" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -4352,185 +4553,218 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="B8" t="s">
-        <v>496</v>
+        <v>512</v>
+      </c>
+      <c r="C8" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="B9" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="C9" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="B11" t="s">
-        <v>502</v>
+        <v>520</v>
+      </c>
+      <c r="C11" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="B12" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="C12" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="C13" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
-        <v>510</v>
+        <v>529</v>
+      </c>
+      <c r="C14" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="B16" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="C16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="B18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+      <c r="C18" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="B19" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+      <c r="C19" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
+        <v>544</v>
+      </c>
+      <c r="C20" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="C21" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="B22" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="C22" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
+      <c r="C23" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="B24" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="B25" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="B26" t="s">
-        <v>533</v>
+        <v>559</v>
+      </c>
+      <c r="C26" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="B27" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/db_BACKUP_24.xlsx
+++ b/db_BACKUP_24.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="442">
   <si>
     <t>Welcome Message</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Boricua</t>
   </si>
   <si>
-    <t>4/16 at 23:38</t>
+    <t>4/18 at 0:23</t>
   </si>
   <si>
     <t>409471590988906508</t>
@@ -53,7 +53,7 @@
     <t>Nae’blis</t>
   </si>
   <si>
-    <t>4/17 at 1:00</t>
+    <t>4/17 at 23:01</t>
   </si>
   <si>
     <t>439438454032433154</t>
@@ -77,7 +77,7 @@
     <t>Papa Marsh; Mini Marsh; Donatello</t>
   </si>
   <si>
-    <t>4/16 at 23:18</t>
+    <t>4/17 at 22:45</t>
   </si>
   <si>
     <t>522247064315494420</t>
@@ -89,7 +89,7 @@
     <t>Falcon</t>
   </si>
   <si>
-    <t>4/16 at 17:01</t>
+    <t>4/17 at 16:06</t>
   </si>
   <si>
     <t>621354689501593620</t>
@@ -98,7 +98,7 @@
     <t>PapaBot</t>
   </si>
   <si>
-    <t>4/17 at 4:59</t>
+    <t>4/18 at 4:59</t>
   </si>
   <si>
     <t>700391520041173113</t>
@@ -110,7 +110,7 @@
     <t>wyatt schecker?</t>
   </si>
   <si>
-    <t>4/16 at 16:33</t>
+    <t>4/17 at 14:49</t>
   </si>
   <si>
     <t>700362168117231648</t>
@@ -120,6 +120,30 @@
   </si>
   <si>
     <t>4/16 at 22:23</t>
+  </si>
+  <si>
+    <t>406129972982317068</t>
+  </si>
+  <si>
+    <t>Sidekick II</t>
+  </si>
+  <si>
+    <t>700773250791112765</t>
+  </si>
+  <si>
+    <t>B-Side</t>
+  </si>
+  <si>
+    <t>master b-side</t>
+  </si>
+  <si>
+    <t>4/17 at 14:32</t>
+  </si>
+  <si>
+    <t>700865530243973171</t>
+  </si>
+  <si>
+    <t>NiTeWoLpH</t>
   </si>
   <si>
     <t>event</t>
@@ -1704,1837 +1728,1837 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -3554,37 +3578,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3594,10 +3618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
@@ -3706,6 +3730,39 @@
       </c>
       <c r="D8" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
